--- a/tests/test_data/LAM_metadata_20210413_testbed.xlsx
+++ b/tests/test_data/LAM_metadata_20210413_testbed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LAM properties" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,11 +21,11 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX classes'!$A$1:$O$277</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$11</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$259</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AH$155</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'old LAM properties'!$A$1:$AM$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AH$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'LAM properties'!$A$1:$AH$150</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$11</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">'old LAM properties'!$A$1:$AL$111</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -13107,7 +13107,7 @@
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13279,12 +13279,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -13382,7 +13376,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13495,10 +13489,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13584,10 +13574,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13679,9 +13665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13691,7 +13677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="22389840" cy="6052320"/>
+          <a:ext cx="22389480" cy="6051960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13734,9 +13720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>214560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>443880</xdr:rowOff>
+      <xdr:rowOff>443520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13746,7 +13732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10118160" cy="443880"/>
+          <a:ext cx="10118520" cy="443520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13776,9 +13762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>443880</xdr:rowOff>
+      <xdr:rowOff>443520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13788,7 +13774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50398560" cy="443880"/>
+          <a:ext cx="50398200" cy="443520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13814,13 +13800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13970,7 +13956,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B2)</f>
         <v>lamd:md_CODE</v>
@@ -13998,7 +13984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B3)</f>
         <v>lamd:md_LABEL</v>
@@ -14026,7 +14012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B4)</f>
         <v>lamd:md_KEYWORD</v>
@@ -14057,7 +14043,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B5)</f>
         <v>lamd:md_EXAMPLE_EN</v>
@@ -14088,7 +14074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B6)</f>
         <v>lamd:md_EXAMPLE_FR</v>
@@ -14119,7 +14105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B7)</f>
         <v>lamd:md_COMMENT</v>
@@ -14150,7 +14136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B8)</f>
         <v>lamd:md_EXAMPLE_CELEX</v>
@@ -14181,7 +14167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B9)</f>
         <v>lamd:md_CDM_CLASS</v>
@@ -14332,7 +14318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B12)</f>
         <v>lamd:md_DT_CORR</v>
@@ -14374,7 +14360,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B13)</f>
         <v>lamd:md_DN_CLASS</v>
@@ -14405,7 +14391,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="210.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="210.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B14)</f>
         <v>lamd:md_DN</v>
@@ -14625,7 +14611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="167.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B19)</f>
         <v>lamd:md_DD</v>
@@ -14677,7 +14663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="156" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B20)</f>
         <v>lamd:md_IF</v>
@@ -14728,7 +14714,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="156" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B21)</f>
         <v>lamd:md_EV</v>
@@ -14773,7 +14759,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="148.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B22)</f>
         <v>lamd:md_NF</v>
@@ -14818,7 +14804,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B23)</f>
         <v>lamd:md_TP</v>
@@ -14865,7 +14851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B24)</f>
         <v>lamd:md_SG</v>
@@ -14909,7 +14895,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B25)</f>
         <v>lamd:md_VO</v>
@@ -14951,7 +14937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B26)</f>
         <v>lamd:md_DB</v>
@@ -14995,7 +14981,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B27)</f>
         <v>lamd:md_LO</v>
@@ -15039,7 +15025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="270.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B28)</f>
         <v>lamd:md_DH</v>
@@ -15083,7 +15069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B29)</f>
         <v>lamd:md_DL</v>
@@ -15125,7 +15111,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B30)</f>
         <v>lamd:md_RP</v>
@@ -15170,7 +15156,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="1222.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="1222.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B31)</f>
         <v>lamd:md_VV</v>
@@ -15214,7 +15200,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="314.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B32)</f>
         <v>lamd:md_REP</v>
@@ -15503,7 +15489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B38)</f>
         <v>lamd:md_LG</v>
@@ -15547,7 +15533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B39)</f>
         <v>lamd:md_RI</v>
@@ -15966,7 +15952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="314.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B47)</f>
         <v>lamd:md_CM</v>
@@ -16098,7 +16084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="171.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B50)</f>
         <v>lamd:md_LB</v>
@@ -16157,7 +16143,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B51)</f>
         <v>lamd:md_AMENDMENT</v>
@@ -16219,7 +16205,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B52)</f>
         <v>lamd:md_ADDITION</v>
@@ -16284,7 +16270,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B53)</f>
         <v>lamd:md_REPEAL</v>
@@ -16346,7 +16332,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="225.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B54)</f>
         <v>lamd:md_REPEAL_IMP</v>
@@ -16408,7 +16394,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B55)</f>
         <v>lamd:md_ADOPTION</v>
@@ -16470,7 +16456,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B56)</f>
         <v>lamd:md_ADOPTION_PAR</v>
@@ -16532,7 +16518,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="258.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B57)</f>
         <v>lamd:md_APPLICABILITY_EXT</v>
@@ -16594,7 +16580,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="236.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B58)</f>
         <v>lamd:md_COMPLETION</v>
@@ -16659,7 +16645,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="236.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B59)</f>
         <v>lamd:md_VALIDITY_EXT</v>
@@ -16724,7 +16710,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="236.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B60)</f>
         <v>lamd:md_REPLACEMENT</v>
@@ -16789,7 +16775,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B61)</f>
         <v>lamd:md_CORRIGENDUM</v>
@@ -16851,7 +16837,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="214.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B62)</f>
         <v>lamd:md_OBSOLETE</v>
@@ -16913,7 +16899,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="171.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="171.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B63)</f>
         <v>lamd:md_DEROGATION</v>
@@ -16978,7 +16964,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B64)</f>
         <v>lamd:md_CONFIRMATION</v>
@@ -17038,7 +17024,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B65)</f>
         <v>lamd:md_QUESTION_SIMILAR</v>
@@ -17098,7 +17084,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B66)</f>
         <v>lamd:md_INTERPRETATION</v>
@@ -17155,7 +17141,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B67)</f>
         <v>lamd:md_IMPLEMENTATION</v>
@@ -17215,7 +17201,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B68)</f>
         <v>lamd:md_REESTAB</v>
@@ -17275,7 +17261,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B69)</f>
         <v>lamd:md_SUSPEND</v>
@@ -17332,7 +17318,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B70)</f>
         <v>lamd:md_SUSPEND_PAR</v>
@@ -17392,7 +17378,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="153.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B71)</f>
         <v>lamd:md_APPLICABILITY_DEF</v>
@@ -17454,7 +17440,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B72)</f>
         <v>lamd:md_INCORPORATION</v>
@@ -17514,7 +17500,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B73)</f>
         <v>lamd:md_REFER_PAR</v>
@@ -17571,7 +17557,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="144.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B74)</f>
         <v>lamd:md_QUESTION_RELATED</v>
@@ -17633,7 +17619,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B75)</f>
         <v>lamd:md_OPINION_EP</v>
@@ -17693,7 +17679,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B76)</f>
         <v>lamd:md_OPINION_COR</v>
@@ -17750,7 +17736,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B77)</f>
         <v>lamd:md_OPINION_EESC</v>
@@ -17807,7 +17793,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B78)</f>
         <v>lamd:md_INFLUENCE</v>
@@ -17864,7 +17850,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B79)</f>
         <v>lamd:md_AMENDMENT_PRO</v>
@@ -17921,7 +17907,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B80)</f>
         <v>lamd:md_CI</v>
@@ -17968,7 +17954,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="841" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B81)</f>
         <v>lamd:md_RELATION</v>
@@ -18016,7 +18002,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B82)</f>
         <v>lamd:md_ASSOCIATION</v>
@@ -18066,7 +18052,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B83)</f>
         <v>lamd:md_PROC</v>
@@ -18333,7 +18319,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
         <v>633</v>
       </c>
@@ -18383,7 +18369,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B89)</f>
         <v>lamd:md_FAILURE_REQ</v>
@@ -18437,7 +18423,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B90)</f>
         <v>lamd:md_INAPPLICAB_REQ</v>
@@ -18491,7 +18477,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B91)</f>
         <v>lamd:md_ANULMENT_PARTIAL_REQ</v>
@@ -18545,7 +18531,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B92)</f>
         <v>lamd:md_REVIEW_REQ</v>
@@ -18599,7 +18585,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B93)</f>
         <v>lamd:md_PRELIMINARY_REQ</v>
@@ -18653,7 +18639,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B94)</f>
         <v>lamd:md_COMMUNIC_REQ</v>
@@ -18707,7 +18693,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B95)</f>
         <v>lamd:md_OPINION_REQ</v>
@@ -18929,7 +18915,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B99)</f>
         <v>lamd:md_ANN_ART</v>
@@ -18965,7 +18951,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B100)</f>
         <v>lamd:md_ANN_PAR</v>
@@ -19001,7 +18987,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B101)</f>
         <v>lamd:md_ANN_SUB</v>
@@ -19037,7 +19023,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B102)</f>
         <v>lamd:md_ANN_TLT</v>
@@ -19199,7 +19185,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B106)</f>
         <v>lamd:md_ANN_SOV</v>
@@ -19232,7 +19218,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B107)</f>
         <v>lamd:md_ANN_EOV</v>
@@ -19382,7 +19368,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="281.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B111)</f>
         <v>lamd:md_DTS</v>
@@ -19423,7 +19409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B112)</f>
         <v>lamd:md_DTT</v>
@@ -19461,7 +19447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B113)</f>
         <v>lamd:md_DTA</v>
@@ -19502,7 +19488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B114)</f>
         <v>lamd:md_DTN</v>
@@ -19543,7 +19529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B115)</f>
         <v>lamd:md_OJ_ID</v>
@@ -19581,7 +19567,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B116)</f>
         <v>lamd:md_ELI</v>
@@ -19611,7 +19597,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B117)</f>
         <v>lamd:md_ECLI</v>
@@ -19641,7 +19627,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B118)</f>
         <v>lamd:md_PARENT</v>
@@ -19671,7 +19657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B119)</f>
         <v>lamd:md_ORDER</v>
@@ -19701,7 +19687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B120)</f>
         <v>lamd:md_DESCRIPTION</v>
@@ -19731,7 +19717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B121)</f>
         <v>lamd:md_CLASSIFICATION</v>
@@ -19761,7 +19747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B122)</f>
         <v>lamd:md_TOF</v>
@@ -19794,7 +19780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B123)</f>
         <v>lamd:md_DR</v>
@@ -19830,7 +19816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B124)</f>
         <v>lamd:md_RI_WORK</v>
@@ -19869,7 +19855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B125)</f>
         <v>lamd:md_BP</v>
@@ -19905,7 +19891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B126)</f>
         <v>lamd:md_RI_NAT</v>
@@ -19989,7 +19975,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B128)</f>
         <v>lamd:md_NAME_COURT</v>
@@ -20034,7 +20020,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B129)</f>
         <v>lamd:md_ID_LOCAL</v>
@@ -20073,7 +20059,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B130)</f>
         <v>lamd:md_PARTIES_NAT</v>
@@ -20115,7 +20101,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="113.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B131)</f>
         <v>lamd:md_REF_PUBLICATION</v>
@@ -20157,7 +20143,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B132)</f>
         <v>lamd:md_LEGIS_NAT</v>
@@ -20199,7 +20185,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B133)</f>
         <v>lamd:md_REF_JURE</v>
@@ -20250,7 +20236,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B134)</f>
         <v>lamd:md_REF_OTHER_JURE</v>
@@ -20289,7 +20275,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B135)</f>
         <v>lamd:md_NO_JOURNAL</v>
@@ -20325,7 +20311,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B136)</f>
         <v>lamd:md_REF_JUDG</v>
@@ -20361,7 +20347,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B137)</f>
         <v>lamd:md_KEYWORDS_NAT</v>
@@ -20400,7 +20386,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B138)</f>
         <v>lamd:md_FOLLOW_UP_NAT</v>
@@ -20436,7 +20422,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B139)</f>
         <v>lamd:md_REF_INTERNATIONAL</v>
@@ -20475,7 +20461,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B140)</f>
         <v>lamd:md_DN_old</v>
@@ -20520,7 +20506,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B141)</f>
         <v>lamd:md_OJ_REF</v>
@@ -20604,7 +20590,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B143)</f>
         <v>lamd:md_ANN_DP</v>
@@ -20637,7 +20623,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B144)</f>
         <v>lamd:md_IN_PREFIX</v>
@@ -20676,7 +20662,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B145)</f>
         <v>lamd:md_IN_SUFFIX</v>
@@ -20715,7 +20701,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B146)</f>
         <v>lamd:md_IN_NUMBER</v>
@@ -20751,7 +20737,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B147)</f>
         <v>lamd:md_IN_YEAR</v>
@@ -20787,7 +20773,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B148)</f>
         <v>lamd:md_ASSOCIATION_WORK</v>
@@ -20826,7 +20812,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B149)</f>
         <v>lamd:md_EEA_RELEVANCE</v>
@@ -20862,7 +20848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B150)</f>
         <v>lamd:md_CODIF</v>
@@ -20898,7 +20884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B151)</f>
         <v>lamd:md_SH_PATH</v>
@@ -20916,7 +20902,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B152)</f>
         <v>lamd:md_LAM_PATH</v>
@@ -20934,7 +20920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B153)</f>
         <v>lamd:md_CONTROLLED_LIST</v>
@@ -20952,7 +20938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B154)</f>
         <v>lamd:md_PROP_TYPE</v>
@@ -20970,12 +20956,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="28.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B155)</f>
         <v>lamd:md_PARENT_COLLECTION</v>
       </c>
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="11" t="s">
         <v>968</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -21178,40 +21164,7 @@
       <c r="E218" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH155">
-    <filterColumn colId="5">
-      <filters>
-        <filter val=" http://publications.europa.eu/resource/dataset/eurovoc "/>
-        <filter val="agent,&#10;at:fd_50"/>
-        <filter val="at:corporate-body"/>
-        <filter val="at:corporate-body&#10;at:country"/>
-        <filter val="at:corporate-body&#10;at:country&#10;at:role-qualifier&#10;at:fd_110"/>
-        <filter val="at:corporate-body,&#10;at:country"/>
-        <filter val="at:corporate-body,&#10;at:fd_50"/>
-        <filter val="at:country"/>
-        <filter val="at:country&#10;at:role-qualifier"/>
-        <filter val="at:dir-eu-legal-act"/>
-        <filter val="at:fd_010"/>
-        <filter val="at:fd_13&#10;at:fd_14"/>
-        <filter val="at:fd_301"/>
-        <filter val="at:fd_345"/>
-        <filter val="at:fd_350,&#10;at:fd_335"/>
-        <filter val="at:fd_365,&#10;at:fd_335,&#10;at:fd_330,&#10;at:fd_361,&#10;at:fd_340,&#10;at:fd_335,&#10;at:fd_350,&#10;at:place,&#10;at:country"/>
-        <filter val="at:fd_370"/>
-        <filter val="at:fd_375"/>
-        <filter val="at:fd_40"/>
-        <filter val="at:fd_400"/>
-        <filter val="at:fd_578"/>
-        <filter val="at:language"/>
-        <filter val="at:legal-act-domain"/>
-        <filter val="at:legal_proceeding&#10;at:legal_proceeding_result&#10;at:fd_110"/>
-        <filter val="at:resource-type"/>
-        <filter val="at:subdivision"/>
-        <filter val="at:subject-matter"/>
-        <filter val="at:treaty"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AH155"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -21231,16 +21184,16 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21268,14 +21221,14 @@
         <f aca="false">VLOOKUP(A2:A85,'LAM properties'!B2:D154,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="51" t="str">
+      <c r="C2" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A2)</f>
         <v>lamd:md_AD</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="F2" s="51" t="str">
+      <c r="F2" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E2)</f>
         <v>lamd:md_AD</v>
       </c>
@@ -21288,14 +21241,14 @@
         <f aca="false">VLOOKUP(A3:A86,'LAM properties'!B3:D155,3,0)</f>
         <v>cdm:resource_legal_adds_to_resource_legal</v>
       </c>
-      <c r="C3" s="51" t="str">
+      <c r="C3" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A3)</f>
         <v>lamd:md_ADDITION</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="F3" s="51" t="str">
+      <c r="F3" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E3)</f>
         <v>lamd:md_ADDITION</v>
       </c>
@@ -21308,14 +21261,14 @@
         <f aca="false">VLOOKUP(A4:A87,'LAM properties'!B4:D156,3,0)</f>
         <v>cdm:resource_legal_adopts_resource_legal</v>
       </c>
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A4)</f>
         <v>lamd:md_ADOPTION</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E4)</f>
         <v>lamd:md_ADOPTION</v>
       </c>
@@ -21328,14 +21281,14 @@
         <f aca="false">VLOOKUP(A5:A88,'LAM properties'!B5:D157,3,0)</f>
         <v>cdm:resource_legal_partially_adopts_resource_</v>
       </c>
-      <c r="C5" s="51" t="str">
+      <c r="C5" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A5)</f>
         <v>lamd:md_ADOPTION_PAR</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="F5" s="51" t="str">
+      <c r="F5" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E5)</f>
         <v>lamd:md_ADOPTION_PAR</v>
       </c>
@@ -21348,14 +21301,14 @@
         <f aca="false">VLOOKUP(A6:A89,'LAM properties'!B6:D158,3,0)</f>
         <v>cdm:question_parliamentary_asked_by_group_parliamentary </v>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A6)</f>
         <v>lamd:md_AF</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="F6" s="51" t="str">
+      <c r="F6" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E6)</f>
         <v>lamd:md_AF</v>
       </c>
@@ -21368,14 +21321,14 @@
         <f aca="false">VLOOKUP(A7:A90,'LAM properties'!B7:D159,3,0)</f>
         <v>cdm:resource_legal_amends_resource_legal</v>
       </c>
-      <c r="C7" s="51" t="str">
+      <c r="C7" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A7)</f>
         <v>lamd:md_AMENDMENT</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F7" s="51" t="str">
+      <c r="F7" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E7)</f>
         <v>lamd:md_AMENDMENT</v>
       </c>
@@ -21388,14 +21341,14 @@
         <f aca="false">VLOOKUP(A8:A91,'LAM properties'!B8:D160,3,0)</f>
         <v>cdm:resource_resource_legal_proposes_to_amend_resource_legal</v>
       </c>
-      <c r="C8" s="51" t="str">
+      <c r="C8" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A8)</f>
         <v>lamd:md_AMENDMENT_PRO</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="51" t="str">
+      <c r="F8" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E8)</f>
         <v>lamd:md_AMENDMENT_PRO</v>
       </c>
@@ -21408,14 +21361,14 @@
         <f aca="false">VLOOKUP(A9:A92,'LAM properties'!B9:D161,3,0)</f>
         <v>cdm:communication_case_new_requests_annulment_of_resource_legal</v>
       </c>
-      <c r="C9" s="51" t="str">
+      <c r="C9" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A9)</f>
         <v>lamd:md_ANNULMENT_REQ</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="F9" s="51" t="str">
+      <c r="F9" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E9)</f>
         <v>lamd:md_ANNULMENT_REQ</v>
       </c>
@@ -21428,14 +21381,14 @@
         <f aca="false">VLOOKUP(A10:A93,'LAM properties'!B10:D162,3,0)</f>
         <v>ann:comment_on_date</v>
       </c>
-      <c r="C10" s="51" t="str">
+      <c r="C10" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A10)</f>
         <v>lamd:md_ANN_COD</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="51" t="str">
+      <c r="F10" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E10)</f>
         <v>lamd:md_ANN_COD</v>
       </c>
@@ -21448,14 +21401,14 @@
         <f aca="false">VLOOKUP(A11:A94,'LAM properties'!B11:D163,3,0)</f>
         <v>ann:type_of_date</v>
       </c>
-      <c r="C11" s="51" t="str">
+      <c r="C11" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A11)</f>
         <v>lamd:md_ANN_TOD</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="51" t="str">
+      <c r="F11" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E11)</f>
         <v>lamd:md_ANN_TOD</v>
       </c>
@@ -21468,14 +21421,14 @@
         <f aca="false">VLOOKUP(A12:A95,'LAM properties'!B12:D164,3,0)</f>
         <v>cdm:communication_case_new_requests_partial_annulment_of_resource_legal</v>
       </c>
-      <c r="C12" s="51" t="str">
+      <c r="C12" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A12)</f>
         <v>lamd:md_ANULMENT_PARTIAL_REQ</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="F12" s="51" t="str">
+      <c r="F12" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E12)</f>
         <v>lamd:md_ANULMENT_PARTIAL_REQ</v>
       </c>
@@ -21488,14 +21441,14 @@
         <f aca="false">VLOOKUP(A13:A96,'LAM properties'!B13:D165,3,0)</f>
         <v>cdm:communication_cjeu_requested_by_agent</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A13)</f>
         <v>lamd:md_AP</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="F13" s="51" t="str">
+      <c r="F13" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E13)</f>
         <v>lamd:md_AP</v>
       </c>
@@ -21508,14 +21461,14 @@
         <f aca="false">VLOOKUP(A14:A97,'LAM properties'!B14:D166,3,0)</f>
         <v>cdm:resource_legal_defers_application_of_resource_legal</v>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A14)</f>
         <v>lamd:md_APPLICABILITY_DEF</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F14" s="51" t="str">
+      <c r="F14" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E14)</f>
         <v>lamd:md_APPLICABILITY_DEF</v>
       </c>
@@ -21528,14 +21481,14 @@
         <f aca="false">VLOOKUP(A15:A98,'LAM properties'!B15:D167,3,0)</f>
         <v>cdm:resource_legal_extends_application_resource_legal</v>
       </c>
-      <c r="C15" s="51" t="str">
+      <c r="C15" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A15)</f>
         <v>lamd:md_APPLICABILITY_EXT</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F15" s="51" t="str">
+      <c r="F15" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E15)</f>
         <v>lamd:md_APPLICABILITY_EXT</v>
       </c>
@@ -21548,14 +21501,14 @@
         <f aca="false">VLOOKUP(A16:A99,'LAM properties'!B16:D168,3,0)</f>
         <v>cdm:service_associated</v>
       </c>
-      <c r="C16" s="51" t="str">
+      <c r="C16" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A16)</f>
         <v>lamd:md_AS</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="51" t="str">
+      <c r="F16" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E16)</f>
         <v>lamd:md_AS</v>
       </c>
@@ -21568,14 +21521,14 @@
         <f aca="false">VLOOKUP(A17:A100,'LAM properties'!B17:D169,3,0)</f>
         <v>cdm:resource_legal_associates_agreement_international</v>
       </c>
-      <c r="C17" s="51" t="str">
+      <c r="C17" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A17)</f>
         <v>lamd:md_ASSOCIATION</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F17" s="51" t="str">
+      <c r="F17" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E17)</f>
         <v>lamd:md_ASSOCIATION</v>
       </c>
@@ -21588,14 +21541,14 @@
         <f aca="false">VLOOKUP(A18:A101,'LAM properties'!B18:D170,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="51" t="str">
+      <c r="C18" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A18)</f>
         <v>lamd:md_CC</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="51" t="str">
+      <c r="F18" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E18)</f>
         <v>lamd:md_CC</v>
       </c>
@@ -21608,14 +21561,14 @@
         <f aca="false">VLOOKUP(A19:A102,'LAM properties'!B19:D171,3,0)</f>
         <v>cdm:work_cites_work</v>
       </c>
-      <c r="C19" s="51" t="str">
+      <c r="C19" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A19)</f>
         <v>lamd:md_CI</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="F19" s="51" t="str">
+      <c r="F19" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E19)</f>
         <v>lamd:md_CI</v>
       </c>
@@ -21628,14 +21581,14 @@
         <f aca="false">VLOOKUP(A20:A103,'LAM properties'!B20:D172,3,0)</f>
         <v>cdm:resource_legal_comment_internal</v>
       </c>
-      <c r="C20" s="51" t="str">
+      <c r="C20" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A20)</f>
         <v>lamd:md_CM</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="51" t="str">
+      <c r="F20" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E20)</f>
         <v>lamd:md_CM</v>
       </c>
@@ -21648,14 +21601,14 @@
         <f aca="false">VLOOKUP(A21:A104,'LAM properties'!B21:D173,3,0)</f>
         <v>cdm:communication_cjeu_communicates_on_case-law</v>
       </c>
-      <c r="C21" s="51" t="str">
+      <c r="C21" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A21)</f>
         <v>lamd:md_COMMUNIC_REQ</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="F21" s="51" t="str">
+      <c r="F21" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E21)</f>
         <v>lamd:md_COMMUNIC_REQ</v>
       </c>
@@ -21668,14 +21621,14 @@
         <f aca="false">VLOOKUP(A22:A105,'LAM properties'!B22:D174,3,0)</f>
         <v>cdm:resource_legal_completes_resource_legal</v>
       </c>
-      <c r="C22" s="51" t="str">
+      <c r="C22" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A22)</f>
         <v>lamd:md_COMPLETION</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="F22" s="51" t="str">
+      <c r="F22" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E22)</f>
         <v>lamd:md_COMPLETION</v>
       </c>
@@ -21688,14 +21641,14 @@
         <f aca="false">VLOOKUP(A23:A106,'LAM properties'!B23:D175,3,0)</f>
         <v>cdm:resource_legal_confirms_resource_legal</v>
       </c>
-      <c r="C23" s="51" t="str">
+      <c r="C23" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A23)</f>
         <v>lamd:md_CONFIRMATION</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="F23" s="51" t="str">
+      <c r="F23" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E23)</f>
         <v>lamd:md_CONFIRMATION</v>
       </c>
@@ -21708,14 +21661,14 @@
         <f aca="false">VLOOKUP(A24:A107,'LAM properties'!B24:D176,3,0)</f>
         <v>cdm:resource_legal_corrects_resource_legal</v>
       </c>
-      <c r="C24" s="51" t="str">
+      <c r="C24" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A24)</f>
         <v>lamd:md_CORRIGENDUM</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="F24" s="51" t="str">
+      <c r="F24" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E24)</f>
         <v>lamd:md_CORRIGENDUM</v>
       </c>
@@ -21728,14 +21681,14 @@
         <f aca="false">VLOOKUP(A25:A108,'LAM properties'!B25:D177,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C25" s="51" t="str">
+      <c r="C25" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A25)</f>
         <v>lamd:md_CT</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="51" t="str">
+      <c r="F25" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E25)</f>
         <v>lamd:md_CT</v>
       </c>
@@ -21748,14 +21701,14 @@
         <f aca="false">VLOOKUP(A26:A109,'LAM properties'!B26:D178,3,0)</f>
         <v>cdm:act_preparatory_date_debate</v>
       </c>
-      <c r="C26" s="51" t="str">
+      <c r="C26" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A26)</f>
         <v>lamd:md_DB</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F26" s="51" t="str">
+      <c r="F26" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E26)</f>
         <v>lamd:md_DB</v>
       </c>
@@ -21768,14 +21721,14 @@
         <f aca="false">VLOOKUP(A27:A110,'LAM properties'!B27:D179,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="51" t="str">
+      <c r="C27" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A27)</f>
         <v>lamd:md_DD</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="51" t="str">
+      <c r="F27" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E27)</f>
         <v>lamd:md_DD</v>
       </c>
@@ -21788,14 +21741,14 @@
         <f aca="false">VLOOKUP(A28:A111,'LAM properties'!B28:D180,3,0)</f>
         <v>cdm:resource_legal_derogates_resource_legal</v>
       </c>
-      <c r="C28" s="51" t="str">
+      <c r="C28" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A28)</f>
         <v>lamd:md_DEROGATION</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E28)</f>
         <v>lamd:md_DEROGATION</v>
       </c>
@@ -21808,14 +21761,14 @@
         <f aca="false">VLOOKUP(A29:A112,'LAM properties'!B29:D181,3,0)</f>
         <v>cdm:communication_cjeu_defended_by_agent</v>
       </c>
-      <c r="C29" s="51" t="str">
+      <c r="C29" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A29)</f>
         <v>lamd:md_DF</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="F29" s="51" t="str">
+      <c r="F29" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E29)</f>
         <v>lamd:md_DF</v>
       </c>
@@ -21828,14 +21781,14 @@
         <f aca="false">VLOOKUP(A30:A113,'LAM properties'!B30:D182,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="51" t="str">
+      <c r="C30" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A30)</f>
         <v>lamd:md_DH</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F30" s="51" t="str">
+      <c r="F30" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E30)</f>
         <v>lamd:md_DH</v>
       </c>
@@ -21848,14 +21801,14 @@
         <f aca="false">VLOOKUP(A31:A114,'LAM properties'!B31:D183,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="51" t="str">
+      <c r="C31" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A31)</f>
         <v>lamd:md_DL</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="51" t="str">
+      <c r="F31" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E31)</f>
         <v>lamd:md_DL</v>
       </c>
@@ -21868,14 +21821,14 @@
         <f aca="false">VLOOKUP(A32:A115,'LAM properties'!B32:D184,3,0)</f>
         <v>cdm:stored_by </v>
       </c>
-      <c r="C32" s="51" t="str">
+      <c r="C32" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A32)</f>
         <v>lamd:md_DP</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F32" s="51" t="str">
+      <c r="F32" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E32)</f>
         <v>lamd:md_DP</v>
       </c>
@@ -21888,14 +21841,14 @@
         <f aca="false">VLOOKUP(A33:A116,'LAM properties'!B33:D185,3,0)</f>
         <v>cdm:resource_legal_date_referral</v>
       </c>
-      <c r="C33" s="51" t="str">
+      <c r="C33" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A33)</f>
         <v>lamd:md_DR</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="F33" s="51" t="str">
+      <c r="F33" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E33)</f>
         <v>lamd:md_DR</v>
       </c>
@@ -21908,14 +21861,14 @@
         <f aca="false">VLOOKUP(A34:A117,'LAM properties'!B34:D186,3,0)</f>
         <v>cdm:case-law_ecli</v>
       </c>
-      <c r="C34" s="51" t="str">
+      <c r="C34" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A34)</f>
         <v>lamd:md_ECLI</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="F34" s="51" t="str">
+      <c r="F34" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E34)</f>
         <v>lamd:md_ECLI</v>
       </c>
@@ -21928,14 +21881,14 @@
         <f aca="false">VLOOKUP(A35:A118,'LAM properties'!B35:D187,3,0)</f>
         <v>cdm:resource_legal_eli</v>
       </c>
-      <c r="C35" s="51" t="str">
+      <c r="C35" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A35)</f>
         <v>lamd:md_ELI</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="F35" s="51" t="str">
+      <c r="F35" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E35)</f>
         <v>lamd:md_ELI</v>
       </c>
@@ -21948,14 +21901,14 @@
         <f aca="false">VLOOKUP(A36:A119,'LAM properties'!B36:D188,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C36" s="51" t="str">
+      <c r="C36" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A36)</f>
         <v>lamd:md_EV</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="51" t="str">
+      <c r="F36" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E36)</f>
         <v>lamd:md_EV</v>
       </c>
@@ -21968,14 +21921,14 @@
         <f aca="false">VLOOKUP(A37:A120,'LAM properties'!B37:D189,3,0)</f>
         <v>cdm:communication_case_new_requests_establishment_of_failure_of_obligation_resource_legal</v>
       </c>
-      <c r="C37" s="51" t="str">
+      <c r="C37" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A37)</f>
         <v>lamd:md_FAILURE_REQ</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="F37" s="51" t="str">
+      <c r="F37" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E37)</f>
         <v>lamd:md_FAILURE_REQ</v>
       </c>
@@ -21988,14 +21941,14 @@
         <f aca="false">VLOOKUP(A38:A121,'LAM properties'!B38:D190,3,0)</f>
         <v>cdm:agreement_international_has_type_comment_concept_type_comment</v>
       </c>
-      <c r="C38" s="51" t="str">
+      <c r="C38" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A38)</f>
         <v>lamd:md_IC</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F38" s="51" t="str">
+      <c r="F38" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E38)</f>
         <v>lamd:md_IC</v>
       </c>
@@ -22008,14 +21961,14 @@
         <f aca="false">VLOOKUP(A39:A122,'LAM properties'!B39:D191,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C39" s="51" t="str">
+      <c r="C39" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A39)</f>
         <v>lamd:md_IF</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="51" t="str">
+      <c r="F39" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E39)</f>
         <v>lamd:md_IF</v>
       </c>
@@ -22028,14 +21981,14 @@
         <f aca="false">VLOOKUP(A40:A123,'LAM properties'!B40:D192,3,0)</f>
         <v>cdm:resource_legal_implements_resource_legal</v>
       </c>
-      <c r="C40" s="51" t="str">
+      <c r="C40" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A40)</f>
         <v>lamd:md_IMPLEMENTATION</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="F40" s="51" t="str">
+      <c r="F40" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E40)</f>
         <v>lamd:md_IMPLEMENTATION</v>
       </c>
@@ -22048,14 +22001,14 @@
         <f aca="false">VLOOKUP(A41:A124,'LAM properties'!B41:D193,3,0)</f>
         <v>cdm:communication_case_new_requests_inapplicability_resource_legal</v>
       </c>
-      <c r="C41" s="51" t="str">
+      <c r="C41" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A41)</f>
         <v>lamd:md_INAPPLICAB_REQ</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F41" s="51" t="str">
+      <c r="F41" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E41)</f>
         <v>lamd:md_INAPPLICAB_REQ</v>
       </c>
@@ -22068,14 +22021,14 @@
         <f aca="false">VLOOKUP(A42:A125,'LAM properties'!B42:D194,3,0)</f>
         <v>cdm:resource_legal_incorporates_resource_legal</v>
       </c>
-      <c r="C42" s="51" t="str">
+      <c r="C42" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A42)</f>
         <v>lamd:md_INCORPORATION</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F42" s="51" t="str">
+      <c r="F42" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E42)</f>
         <v>lamd:md_INCORPORATION</v>
       </c>
@@ -22088,14 +22041,14 @@
         <f aca="false">VLOOKUP(A43:A126,'LAM properties'!B43:D195,3,0)</f>
         <v>cdm:resource_resource_legal_influences_resource_legal</v>
       </c>
-      <c r="C43" s="51" t="str">
+      <c r="C43" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A43)</f>
         <v>lamd:md_INFLUENCE</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="F43" s="51" t="str">
+      <c r="F43" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E43)</f>
         <v>lamd:md_INFLUENCE</v>
       </c>
@@ -22108,14 +22061,14 @@
         <f aca="false">VLOOKUP(A44:A127,'LAM properties'!B44:D196,3,0)</f>
         <v>cdm:resource_legal_interpretes_authoritatively_resource_legal</v>
       </c>
-      <c r="C44" s="51" t="str">
+      <c r="C44" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A44)</f>
         <v>lamd:md_INTERPRETATION</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="F44" s="51" t="str">
+      <c r="F44" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E44)</f>
         <v>lamd:md_INTERPRETATION</v>
       </c>
@@ -22128,14 +22081,14 @@
         <f aca="false">VLOOKUP(A45:A128,'LAM properties'!B45:D197,3,0)</f>
         <v>cdm:resource_legal_based_on_resource_legal</v>
       </c>
-      <c r="C45" s="51" t="str">
+      <c r="C45" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A45)</f>
         <v>lamd:md_LB</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F45" s="51" t="str">
+      <c r="F45" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E45)</f>
         <v>lamd:md_LB</v>
       </c>
@@ -22148,14 +22101,14 @@
         <f aca="false">VLOOKUP(A46:A129,'LAM properties'!B46:D198,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C46" s="51" t="str">
+      <c r="C46" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A46)</f>
         <v>lamd:md_LF</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="F46" s="51" t="str">
+      <c r="F46" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E46)</f>
         <v>lamd:md_LF</v>
       </c>
@@ -22168,14 +22121,14 @@
         <f aca="false">VLOOKUP(A47:A130,'LAM properties'!B47:D199,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C47" s="51" t="str">
+      <c r="C47" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A47)</f>
         <v>lamd:md_LG</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="F47" s="51" t="str">
+      <c r="F47" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E47)</f>
         <v>lamd:md_LG</v>
       </c>
@@ -22188,14 +22141,14 @@
         <f aca="false">VLOOKUP(A48:A131,'LAM properties'!B48:D200,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C48" s="51" t="str">
+      <c r="C48" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A48)</f>
         <v>lamd:md_LO</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="51" t="str">
+      <c r="F48" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E48)</f>
         <v>lamd:md_LO</v>
       </c>
@@ -22208,14 +22161,14 @@
         <f aca="false">VLOOKUP(A49:A132,'LAM properties'!B49:D201,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C49" s="51" t="str">
+      <c r="C49" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A49)</f>
         <v>lamd:md_MI</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F49" s="51" t="str">
+      <c r="F49" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E49)</f>
         <v>lamd:md_MI</v>
       </c>
@@ -22228,14 +22181,14 @@
         <f aca="false">VLOOKUP(A50:A133,'LAM properties'!B50:D202,3,0)</f>
         <v>cdm:work_originates_in_country</v>
       </c>
-      <c r="C50" s="51" t="str">
+      <c r="C50" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A50)</f>
         <v>lamd:md_NA</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="F50" s="51" t="str">
+      <c r="F50" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E50)</f>
         <v>lamd:md_NA</v>
       </c>
@@ -22248,14 +22201,14 @@
         <f aca="false">VLOOKUP(A51:A134,'LAM properties'!B51:D203,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C51" s="51" t="str">
+      <c r="C51" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A51)</f>
         <v>lamd:md_NF</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F51" s="51" t="str">
+      <c r="F51" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E51)</f>
         <v>lamd:md_NF</v>
       </c>
@@ -22268,14 +22221,14 @@
         <f aca="false">VLOOKUP(A52:A135,'LAM properties'!B52:D204,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C52" s="51" t="str">
+      <c r="C52" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A52)</f>
         <v>lamd:md_NS</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="F52" s="51" t="str">
+      <c r="F52" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E52)</f>
         <v>lamd:md_NS</v>
       </c>
@@ -22288,14 +22241,14 @@
         <f aca="false">VLOOKUP(A53:A136,'LAM properties'!B53:D205,3,0)</f>
         <v>cdm:resource_legal_renders_obsolete_resource_legal</v>
       </c>
-      <c r="C53" s="51" t="str">
+      <c r="C53" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A53)</f>
         <v>lamd:md_OBSOLETE</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F53" s="51" t="str">
+      <c r="F53" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E53)</f>
         <v>lamd:md_OBSOLETE</v>
       </c>
@@ -22308,14 +22261,14 @@
         <f aca="false">VLOOKUP(A54:A137,'LAM properties'!B54:D206,3,0)</f>
         <v>cdm:resource_resource_legal_contains_cor_opinion_on_resource_legal</v>
       </c>
-      <c r="C54" s="51" t="str">
+      <c r="C54" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A54)</f>
         <v>lamd:md_OPINION_COR</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="F54" s="51" t="str">
+      <c r="F54" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E54)</f>
         <v>lamd:md_OPINION_COR</v>
       </c>
@@ -22328,14 +22281,14 @@
         <f aca="false">VLOOKUP(A55:A138,'LAM properties'!B55:D207,3,0)</f>
         <v>cdm:resource_resource_legal_contains_eesc_opinion_on_resource_legal</v>
       </c>
-      <c r="C55" s="51" t="str">
+      <c r="C55" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A55)</f>
         <v>lamd:md_OPINION_EESC</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="F55" s="51" t="str">
+      <c r="F55" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E55)</f>
         <v>lamd:md_OPINION_EESC</v>
       </c>
@@ -22348,14 +22301,14 @@
         <f aca="false">VLOOKUP(A56:A139,'LAM properties'!B56:D208,3,0)</f>
         <v>cdm:resource_resource_legal_contains_ep_opinion_on_resource_legal</v>
       </c>
-      <c r="C56" s="51" t="str">
+      <c r="C56" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A56)</f>
         <v>lamd:md_OPINION_EP</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="F56" s="51" t="str">
+      <c r="F56" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E56)</f>
         <v>lamd:md_OPINION_EP</v>
       </c>
@@ -22368,14 +22321,14 @@
         <f aca="false">VLOOKUP(A57:A140,'LAM properties'!B57:D209,3,0)</f>
         <v>cdm:communication_request_opinion_requests_opinion_on_resource_legal</v>
       </c>
-      <c r="C57" s="51" t="str">
+      <c r="C57" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A57)</f>
         <v>lamd:md_OPINION_REQ</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="F57" s="51" t="str">
+      <c r="F57" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E57)</f>
         <v>lamd:md_OPINION_REQ</v>
       </c>
@@ -22388,14 +22341,14 @@
         <f aca="false">VLOOKUP(A58:A141,'LAM properties'!B58:D210,3,0)</f>
         <v>cdm:communication_cjeu_has_type_procedure_concept_type_procedure</v>
       </c>
-      <c r="C58" s="51" t="str">
+      <c r="C58" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A58)</f>
         <v>lamd:md_PR</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="F58" s="51" t="str">
+      <c r="F58" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E58)</f>
         <v>lamd:md_PR</v>
       </c>
@@ -22408,14 +22361,14 @@
         <f aca="false">VLOOKUP(A59:A142,'LAM properties'!B59:D211,3,0)</f>
         <v>cdm:communication_case_new_submits_preliminary_question_resource_legal</v>
       </c>
-      <c r="C59" s="51" t="str">
+      <c r="C59" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A59)</f>
         <v>lamd:md_PRELIMINARY_REQ</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="F59" s="51" t="str">
+      <c r="F59" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E59)</f>
         <v>lamd:md_PRELIMINARY_REQ</v>
       </c>
@@ -22428,14 +22381,14 @@
         <f aca="false">VLOOKUP(A60:A143,'LAM properties'!B60:D212,3,0)</f>
         <v>cdm:work_part_of_dossier</v>
       </c>
-      <c r="C60" s="51" t="str">
+      <c r="C60" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A60)</f>
         <v>lamd:md_PROC</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="F60" s="51" t="str">
+      <c r="F60" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E60)</f>
         <v>lamd:md_PROC</v>
       </c>
@@ -22448,14 +22401,14 @@
         <f aca="false">VLOOKUP(A61:A144,'LAM properties'!B61:D213,3,0)</f>
         <v>cdm:resource_legal_related_question_to_resource_legal</v>
       </c>
-      <c r="C61" s="51" t="str">
+      <c r="C61" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A61)</f>
         <v>lamd:md_QUESTION_RELATED</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="F61" s="51" t="str">
+      <c r="F61" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E61)</f>
         <v>lamd:md_QUESTION_RELATED</v>
       </c>
@@ -22468,14 +22421,14 @@
         <f aca="false">VLOOKUP(A62:A145,'LAM properties'!B62:D214,3,0)</f>
         <v>cdm:resource_legal_tackles_similar_question_as_resource_legal</v>
       </c>
-      <c r="C62" s="51" t="str">
+      <c r="C62" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A62)</f>
         <v>lamd:md_QUESTION_SIMILAR</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="F62" s="51" t="str">
+      <c r="F62" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E62)</f>
         <v>lamd:md_QUESTION_SIMILAR</v>
       </c>
@@ -22488,14 +22441,14 @@
         <f aca="false">VLOOKUP(A63:A146,'LAM properties'!B63:D215,3,0)</f>
         <v>cdm:resource_legal_reestablishes_resource_legal</v>
       </c>
-      <c r="C63" s="51" t="str">
+      <c r="C63" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A63)</f>
         <v>lamd:md_REESTAB</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="F63" s="51" t="str">
+      <c r="F63" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E63)</f>
         <v>lamd:md_REESTAB</v>
       </c>
@@ -22508,14 +22461,14 @@
         <f aca="false">VLOOKUP(A64:A147,'LAM properties'!B64:D216,3,0)</f>
         <v>cdm:resource_legal_partially_refers_to_resource_legal</v>
       </c>
-      <c r="C64" s="51" t="str">
+      <c r="C64" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A64)</f>
         <v>lamd:md_REFER_PAR</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="F64" s="51" t="str">
+      <c r="F64" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E64)</f>
         <v>lamd:md_REFER_PAR</v>
       </c>
@@ -22528,14 +22481,14 @@
         <f aca="false">VLOOKUP(A65:A148,'LAM properties'!B65:D217,3,0)</f>
         <v>cdm:work_related_to_work</v>
       </c>
-      <c r="C65" s="51" t="str">
+      <c r="C65" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A65)</f>
         <v>lamd:md_RELATION</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="F65" s="51" t="str">
+      <c r="F65" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E65)</f>
         <v>lamd:md_RELATION</v>
       </c>
@@ -22548,14 +22501,14 @@
         <f aca="false">VLOOKUP(A66:A149,'LAM properties'!B66:D218,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C66" s="51" t="str">
+      <c r="C66" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A66)</f>
         <v>lamd:md_REP</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="51" t="str">
+      <c r="F66" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E66)</f>
         <v>lamd:md_REP</v>
       </c>
@@ -22568,14 +22521,14 @@
         <f aca="false">VLOOKUP(A67:A150,'LAM properties'!B67:D219,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C67" s="51" t="str">
+      <c r="C67" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A67)</f>
         <v>lamd:md_REPEAL</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="F67" s="51" t="str">
+      <c r="F67" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E67)</f>
         <v>lamd:md_REPEAL</v>
       </c>
@@ -22588,14 +22541,14 @@
         <f aca="false">VLOOKUP(A68:A151,'LAM properties'!B68:D220,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C68" s="51" t="str">
+      <c r="C68" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A68)</f>
         <v>lamd:md_REPEAL_IMP</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="F68" s="51" t="str">
+      <c r="F68" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E68)</f>
         <v>lamd:md_REPEAL_IMP</v>
       </c>
@@ -22608,14 +22561,14 @@
         <f aca="false">VLOOKUP(A69:A152,'LAM properties'!B69:D221,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C69" s="51" t="str">
+      <c r="C69" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A69)</f>
         <v>lamd:md_REPLACEMENT</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="F69" s="51" t="str">
+      <c r="F69" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E69)</f>
         <v>lamd:md_REPLACEMENT</v>
       </c>
@@ -22628,14 +22581,14 @@
         <f aca="false">VLOOKUP(A70:A153,'LAM properties'!B70:D222,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C70" s="51" t="str">
+      <c r="C70" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A70)</f>
         <v>lamd:md_REPPORTEUR</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F70" s="51" t="str">
+      <c r="F70" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E70)</f>
         <v>lamd:md_REPPORTEUR</v>
       </c>
@@ -22648,14 +22601,14 @@
         <f aca="false">VLOOKUP(A71:A154,'LAM properties'!B71:D223,3,0)</f>
         <v>cdm:communication_case_new_requests_review_of_decision_case-law</v>
       </c>
-      <c r="C71" s="51" t="str">
+      <c r="C71" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A71)</f>
         <v>lamd:md_REVIEW_REQ</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="F71" s="51" t="str">
+      <c r="F71" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E71)</f>
         <v>lamd:md_REVIEW_REQ</v>
       </c>
@@ -22668,14 +22621,14 @@
         <f aca="false">VLOOKUP(A72:A155,'LAM properties'!B72:D224,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C72" s="51" t="str">
+      <c r="C72" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A72)</f>
         <v>lamd:md_RI</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="51" t="str">
+      <c r="F72" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E72)</f>
         <v>lamd:md_RI</v>
       </c>
@@ -22688,14 +22641,14 @@
         <f aca="false">VLOOKUP(A73:A156,'LAM properties'!B73:D225,3,0)</f>
         <v>cdm:work_reference_internal</v>
       </c>
-      <c r="C73" s="51" t="str">
+      <c r="C73" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A73)</f>
         <v>lamd:md_RI_WORK</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="F73" s="51" t="str">
+      <c r="F73" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E73)</f>
         <v>lamd:md_RI_WORK</v>
       </c>
@@ -22708,14 +22661,14 @@
         <f aca="false">VLOOKUP(A74:A157,'LAM properties'!B74:D226,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C74" s="51" t="str">
+      <c r="C74" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A74)</f>
         <v>lamd:md_RJ_NEW</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F74" s="51" t="str">
+      <c r="F74" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E74)</f>
         <v>lamd:md_RJ_NEW</v>
       </c>
@@ -22728,14 +22681,14 @@
         <f aca="false">VLOOKUP(A75:A158,'LAM properties'!B75:D227,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C75" s="51" t="str">
+      <c r="C75" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A75)</f>
         <v>lamd:md_RP</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F75" s="51" t="str">
+      <c r="F75" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E75)</f>
         <v>lamd:md_RP</v>
       </c>
@@ -22748,14 +22701,14 @@
         <f aca="false">VLOOKUP(A76:A159,'LAM properties'!B76:D228,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C76" s="51" t="str">
+      <c r="C76" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A76)</f>
         <v>lamd:md_RS</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F76" s="51" t="str">
+      <c r="F76" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E76)</f>
         <v>lamd:md_RS</v>
       </c>
@@ -22768,14 +22721,14 @@
         <f aca="false">VLOOKUP(A77:A160,'LAM properties'!B77:D229,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C77" s="51" t="str">
+      <c r="C77" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A77)</f>
         <v>lamd:md_SG</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F77" s="51" t="str">
+      <c r="F77" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E77)</f>
         <v>lamd:md_SG</v>
       </c>
@@ -22788,14 +22741,14 @@
         <f aca="false">VLOOKUP(A78:A161,'LAM properties'!B78:D230,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C78" s="51" t="str">
+      <c r="C78" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A78)</f>
         <v>lamd:md_SUSPEND</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="F78" s="51" t="str">
+      <c r="F78" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E78)</f>
         <v>lamd:md_SUSPEND</v>
       </c>
@@ -22808,14 +22761,14 @@
         <f aca="false">VLOOKUP(A79:A162,'LAM properties'!B79:D231,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C79" s="51" t="str">
+      <c r="C79" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A79)</f>
         <v>lamd:md_SUSPEND_PAR</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F79" s="51" t="str">
+      <c r="F79" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E79)</f>
         <v>lamd:md_SUSPEND_PAR</v>
       </c>
@@ -22828,14 +22781,14 @@
         <f aca="false">VLOOKUP(A80:A163,'LAM properties'!B80:D232,3,0)</f>
         <v>cdm:resource_legal_term-of-office</v>
       </c>
-      <c r="C80" s="51" t="str">
+      <c r="C80" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A80)</f>
         <v>lamd:md_TOF</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="F80" s="51" t="str">
+      <c r="F80" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E80)</f>
         <v>lamd:md_TOF</v>
       </c>
@@ -22848,14 +22801,14 @@
         <f aca="false">VLOOKUP(A81:A164,'LAM properties'!B81:D233,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C81" s="51" t="str">
+      <c r="C81" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A81)</f>
         <v>lamd:md_TP</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F81" s="51" t="str">
+      <c r="F81" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E81)</f>
         <v>lamd:md_TP</v>
       </c>
@@ -22868,14 +22821,14 @@
         <f aca="false">VLOOKUP(A82:A165,'LAM properties'!B82:D234,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C82" s="51" t="str">
+      <c r="C82" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A82)</f>
         <v>lamd:md_TT</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="F82" s="51" t="str">
+      <c r="F82" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E82)</f>
         <v>lamd:md_TT</v>
       </c>
@@ -22888,14 +22841,14 @@
         <f aca="false">VLOOKUP(A83:A166,'LAM properties'!B83:D235,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C83" s="51" t="str">
+      <c r="C83" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A83)</f>
         <v>lamd:md_VALIDITY_EXT</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F83" s="51" t="str">
+      <c r="F83" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E83)</f>
         <v>lamd:md_VALIDITY_EXT</v>
       </c>
@@ -22908,14 +22861,14 @@
         <f aca="false">VLOOKUP(A84:A167,'LAM properties'!B84:D236,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C84" s="51" t="str">
+      <c r="C84" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A84)</f>
         <v>lamd:md_VO</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="51" t="str">
+      <c r="F84" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E84)</f>
         <v>lamd:md_VO</v>
       </c>
@@ -22928,14 +22881,14 @@
         <f aca="false">VLOOKUP(A85:A168,'LAM properties'!B85:D237,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C85" s="51" t="str">
+      <c r="C85" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",A85)</f>
         <v>lamd:md_VV</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F85" s="51" t="str">
+      <c r="F85" s="27" t="str">
         <f aca="false">CONCATENATE("lamd:md_",E85)</f>
         <v>lamd:md_VV</v>
       </c>
@@ -22959,10 +22912,10 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="1:1 B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.32421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
@@ -23111,7 +23064,7 @@
       <c r="E6" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>155</v>
       </c>
       <c r="G6" s="27" t="s">
@@ -23183,7 +23136,7 @@
       <c r="E9" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>983</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -23207,7 +23160,7 @@
       <c r="E10" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="27" t="s">
@@ -23231,7 +23184,7 @@
       <c r="E11" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>402</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -23340,20 +23293,20 @@
         <f aca="false">CONCATENATE("lamd:class_",B16)</f>
         <v>lamd:class_CI</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>576</v>
       </c>
       <c r="C16" s="9" t="str">
         <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("lamd:class_",D16),""  )</f>
         <v>lamd:class_CI</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="E16" s="30" t="n">
+      <c r="E16" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>582</v>
       </c>
       <c r="G16" s="27"/>
@@ -23399,7 +23352,7 @@
       <c r="E18" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="27" t="s">
@@ -23423,7 +23376,7 @@
       <c r="E19" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>611</v>
       </c>
       <c r="G19" s="27" t="s">
@@ -23499,7 +23452,7 @@
       <c r="E22" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="27" t="s">
@@ -23636,10 +23589,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="N13" activeCellId="1" sqref="1:1 N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -23650,13 +23603,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="21" width="67.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="21" width="80.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="21" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="31" width="31.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="31" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="31" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="31" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="12" min="12" style="31" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="13" min="13" style="31" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="14" min="14" style="31" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="30" width="31.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="30" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="30" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="30" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="12" min="12" style="30" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="13" min="13" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="14" min="14" style="30" width="29.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="15" style="21" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="16" min="16" style="21" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="17" style="21" width="8.64"/>
@@ -23692,7 +23645,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="50" min="50" style="21" width="4.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="51" min="51" style="21" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="52" min="52" style="21" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="53" min="53" style="32" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="53" min="53" style="31" width="15.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="54" min="54" style="21" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="55" min="55" style="21" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="56" min="56" style="21" width="7.54"/>
@@ -23741,314 +23694,314 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="107" style="21" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="32" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="32" t="s">
         <v>1003</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="32" t="s">
         <v>1004</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="32" t="s">
         <v>1005</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="32" t="s">
         <v>1006</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="32" t="s">
         <v>1007</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="32" t="s">
         <v>1008</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="32" t="s">
         <v>1009</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AR1" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AS1" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AT1" s="32" t="s">
         <v>1010</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="AU1" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="AV1" s="33" t="s">
+      <c r="AV1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="AW1" s="33" t="s">
+      <c r="AW1" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="AX1" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="AY1" s="33" t="s">
+      <c r="AY1" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="AZ1" s="33" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BA1" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="BB1" s="33" t="s">
+      <c r="BB1" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="BC1" s="33" t="s">
+      <c r="BC1" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="BD1" s="33" t="s">
+      <c r="BD1" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="BE1" s="33" t="s">
+      <c r="BE1" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BF1" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="BG1" s="33" t="s">
+      <c r="BG1" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="BH1" s="33" t="s">
+      <c r="BH1" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="BI1" s="33" t="s">
+      <c r="BI1" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="BJ1" s="33" t="s">
+      <c r="BJ1" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BK1" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="BL1" s="33" t="s">
+      <c r="BL1" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="BM1" s="33" t="s">
+      <c r="BM1" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="BN1" s="33" t="s">
+      <c r="BN1" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="BO1" s="33" t="s">
+      <c r="BO1" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="BP1" s="33" t="s">
+      <c r="BP1" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="BQ1" s="33" t="s">
+      <c r="BQ1" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="BR1" s="33" t="s">
+      <c r="BR1" s="32" t="s">
         <v>507</v>
       </c>
-      <c r="BS1" s="33" t="s">
+      <c r="BS1" s="32" t="s">
         <v>513</v>
       </c>
-      <c r="BT1" s="33" t="s">
+      <c r="BT1" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="BU1" s="33" t="s">
+      <c r="BU1" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="BV1" s="33" t="s">
+      <c r="BV1" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="BW1" s="33" t="s">
+      <c r="BW1" s="32" t="s">
         <v>536</v>
       </c>
-      <c r="BX1" s="33" t="s">
+      <c r="BX1" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="BY1" s="33" t="s">
+      <c r="BY1" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="BZ1" s="33" t="s">
+      <c r="BZ1" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="CA1" s="33" t="s">
+      <c r="CA1" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="CB1" s="33" t="s">
+      <c r="CB1" s="32" t="s">
         <v>562</v>
       </c>
-      <c r="CC1" s="33" t="s">
+      <c r="CC1" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="CD1" s="33" t="s">
+      <c r="CD1" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="CE1" s="33" t="s">
+      <c r="CE1" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="CF1" s="33" t="s">
+      <c r="CF1" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="CG1" s="33" t="s">
+      <c r="CG1" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="CH1" s="33" t="s">
+      <c r="CH1" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="CI1" s="33" t="s">
+      <c r="CI1" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="CJ1" s="33" t="s">
+      <c r="CJ1" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="CK1" s="33" t="s">
+      <c r="CK1" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="CL1" s="33" t="s">
+      <c r="CL1" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="CM1" s="33" t="s">
+      <c r="CM1" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="CN1" s="33" t="s">
+      <c r="CN1" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="CO1" s="33" t="s">
+      <c r="CO1" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="CP1" s="33" t="s">
+      <c r="CP1" s="32" t="s">
         <v>647</v>
       </c>
-      <c r="CQ1" s="33" t="s">
+      <c r="CQ1" s="32" t="s">
         <v>651</v>
       </c>
-      <c r="CR1" s="33" t="s">
+      <c r="CR1" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="CS1" s="33" t="s">
+      <c r="CS1" s="32" t="s">
         <v>659</v>
       </c>
-      <c r="CT1" s="33" t="s">
+      <c r="CT1" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="CU1" s="33" t="s">
+      <c r="CU1" s="32" t="s">
         <v>768</v>
       </c>
-      <c r="CV1" s="33" t="s">
+      <c r="CV1" s="32" t="s">
         <v>663</v>
       </c>
-      <c r="CW1" s="33" t="s">
+      <c r="CW1" s="32" t="s">
         <v>793</v>
       </c>
-      <c r="CX1" s="33" t="s">
+      <c r="CX1" s="32" t="s">
         <v>787</v>
       </c>
-      <c r="CY1" s="33" t="s">
+      <c r="CY1" s="32" t="s">
         <v>782</v>
       </c>
       <c r="CZ1" s="4" t="s">
@@ -24084,22 +24037,22 @@
       <c r="G2" s="21" t="s">
         <v>1017</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>1020</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O2" s="21" t="s">
@@ -24147,7 +24100,7 @@
       <c r="AZ2" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA2" s="32" t="s">
+      <c r="BA2" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB2" s="21" t="s">
@@ -24223,22 +24176,22 @@
       <c r="G3" s="21" t="s">
         <v>1035</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>1036</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O3" s="21" t="s">
@@ -24286,7 +24239,7 @@
       <c r="AZ3" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA3" s="32" t="s">
+      <c r="BA3" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB3" s="21" t="s">
@@ -24362,22 +24315,22 @@
       <c r="G4" s="21" t="s">
         <v>1042</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>1043</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O4" s="21" t="s">
@@ -24425,7 +24378,7 @@
       <c r="AZ4" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA4" s="32" t="s">
+      <c r="BA4" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB4" s="21" t="s">
@@ -24500,22 +24453,22 @@
       <c r="G5" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="30" t="s">
         <v>1052</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O5" s="21" t="s">
@@ -24563,7 +24516,7 @@
       <c r="AZ5" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BA5" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB5" s="21" t="s">
@@ -24638,22 +24591,22 @@
       <c r="G6" s="21" t="s">
         <v>1059</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -24704,7 +24657,7 @@
       <c r="AZ6" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA6" s="32" t="s">
+      <c r="BA6" s="31" t="s">
         <v>395</v>
       </c>
       <c r="CD6" s="21" t="s">
@@ -24752,22 +24705,22 @@
       <c r="G7" s="21" t="s">
         <v>1075</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O7" s="21" t="s">
@@ -24818,7 +24771,7 @@
       <c r="AZ7" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA7" s="32" t="s">
+      <c r="BA7" s="31" t="s">
         <v>395</v>
       </c>
       <c r="CE7" s="21" t="s">
@@ -24848,7 +24801,7 @@
       <c r="B8" s="21" t="s">
         <v>1077</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>1078</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -24863,22 +24816,22 @@
       <c r="G8" s="21" t="s">
         <v>1082</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>1083</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O8" s="21" t="s">
@@ -24929,7 +24882,7 @@
       <c r="AZ8" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA8" s="32" t="s">
+      <c r="BA8" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB8" s="21" t="s">
@@ -24986,22 +24939,22 @@
       <c r="G9" s="21" t="s">
         <v>1090</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>1091</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>1092</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O9" s="21" t="s">
@@ -25052,7 +25005,7 @@
       <c r="AZ9" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA9" s="32" t="s">
+      <c r="BA9" s="31" t="s">
         <v>395</v>
       </c>
       <c r="CD9" s="21" t="s">
@@ -25100,22 +25053,22 @@
       <c r="G10" s="21" t="s">
         <v>1099</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>1091</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="30" t="s">
         <v>1092</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O10" s="21" t="s">
@@ -25166,7 +25119,7 @@
       <c r="AZ10" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA10" s="32" t="s">
+      <c r="BA10" s="31" t="s">
         <v>395</v>
       </c>
       <c r="CE10" s="21" t="s">
@@ -25196,37 +25149,37 @@
       <c r="B11" s="21" t="s">
         <v>1101</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>1102</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>1103</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>1104</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>1105</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>1106</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>1091</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="30" t="s">
         <v>1019</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>1107</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="30" t="s">
         <v>395</v>
       </c>
       <c r="O11" s="21" t="s">
@@ -25277,7 +25230,7 @@
       <c r="AZ11" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA11" s="32" t="s">
+      <c r="BA11" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB11" s="21" t="s">
@@ -25334,22 +25287,22 @@
       <c r="G12" s="21" t="s">
         <v>1114</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>1115</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="30" t="s">
         <v>1117</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="30" t="s">
         <v>1118</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="30" t="s">
         <v>395</v>
       </c>
       <c r="R12" s="21" t="s">
@@ -25418,22 +25371,22 @@
       <c r="G13" s="21" t="s">
         <v>1125</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>1115</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="30" t="s">
         <v>1117</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="30" t="s">
         <v>1126</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="30" t="s">
         <v>395</v>
       </c>
       <c r="R13" s="21" t="s">
@@ -25502,22 +25455,22 @@
       <c r="G14" s="21" t="s">
         <v>1134</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>1135</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="30" t="s">
         <v>1137</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="30" t="s">
         <v>1138</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="30" t="s">
         <v>1139</v>
       </c>
       <c r="O14" s="21" t="s">
@@ -25577,7 +25530,7 @@
       <c r="AZ14" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="BA14" s="32" t="s">
+      <c r="BA14" s="31" t="s">
         <v>395</v>
       </c>
       <c r="BB14" s="21" t="s">
@@ -25655,22 +25608,22 @@
       <c r="G15" s="21" t="s">
         <v>1150</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="30" t="s">
         <v>1151</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="30" t="s">
         <v>1152</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="30" t="s">
         <v>1153</v>
       </c>
       <c r="O15" s="21" t="s">
@@ -25736,131 +25689,131 @@
       <c r="G16" s="21" t="s">
         <v>1163</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>1151</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="30" t="s">
         <v>1165</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="36" t="s">
         <v>1167</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="36" t="s">
         <v>1168</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37" t="s">
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="S16" s="37" t="s">
+      <c r="S16" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37" t="s">
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36" t="s">
         <v>1169</v>
       </c>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="37"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="37" t="s">
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36" t="s">
         <v>1170</v>
       </c>
-      <c r="BA16" s="38" t="s">
+      <c r="BA16" s="37" t="s">
         <v>1171</v>
       </c>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="37"/>
-      <c r="BE16" s="37"/>
-      <c r="BF16" s="37"/>
-      <c r="BG16" s="37"/>
-      <c r="BH16" s="37"/>
-      <c r="BI16" s="37"/>
-      <c r="BJ16" s="37"/>
-      <c r="BK16" s="37"/>
-      <c r="BL16" s="37"/>
-      <c r="BM16" s="37"/>
-      <c r="BN16" s="37"/>
-      <c r="BO16" s="37"/>
-      <c r="BP16" s="37"/>
-      <c r="BQ16" s="37"/>
-      <c r="BR16" s="37"/>
-      <c r="BS16" s="37"/>
-      <c r="BT16" s="37"/>
-      <c r="BU16" s="37"/>
-      <c r="BV16" s="37"/>
-      <c r="BW16" s="37"/>
-      <c r="BX16" s="37"/>
-      <c r="BY16" s="37"/>
-      <c r="BZ16" s="37"/>
-      <c r="CA16" s="37"/>
-      <c r="CB16" s="37"/>
-      <c r="CC16" s="37"/>
-      <c r="CD16" s="37"/>
-      <c r="CE16" s="37" t="s">
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="36"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="36"/>
+      <c r="BR16" s="36"/>
+      <c r="BS16" s="36"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="36"/>
+      <c r="BV16" s="36"/>
+      <c r="BW16" s="36"/>
+      <c r="BX16" s="36"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="36"/>
+      <c r="CA16" s="36"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36"/>
+      <c r="CE16" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CF16" s="37" t="s">
+      <c r="CF16" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CG16" s="37"/>
-      <c r="CH16" s="37"/>
-      <c r="CI16" s="37"/>
-      <c r="CJ16" s="37"/>
-      <c r="CK16" s="37"/>
-      <c r="CL16" s="37"/>
-      <c r="CM16" s="37"/>
-      <c r="CN16" s="37"/>
-      <c r="CO16" s="37"/>
-      <c r="CP16" s="37"/>
-      <c r="CQ16" s="37"/>
-      <c r="CR16" s="37"/>
-      <c r="CS16" s="37"/>
-      <c r="CT16" s="37"/>
-      <c r="CU16" s="37"/>
-      <c r="CV16" s="37"/>
-      <c r="CW16" s="37"/>
-      <c r="CX16" s="37"/>
-      <c r="CY16" s="37"/>
+      <c r="CG16" s="36"/>
+      <c r="CH16" s="36"/>
+      <c r="CI16" s="36"/>
+      <c r="CJ16" s="36"/>
+      <c r="CK16" s="36"/>
+      <c r="CL16" s="36"/>
+      <c r="CM16" s="36"/>
+      <c r="CN16" s="36"/>
+      <c r="CO16" s="36"/>
+      <c r="CP16" s="36"/>
+      <c r="CQ16" s="36"/>
+      <c r="CR16" s="36"/>
+      <c r="CS16" s="36"/>
+      <c r="CT16" s="36"/>
+      <c r="CU16" s="36"/>
+      <c r="CV16" s="36"/>
+      <c r="CW16" s="36"/>
+      <c r="CX16" s="36"/>
+      <c r="CY16" s="36"/>
       <c r="CZ16" s="21" t="s">
         <v>1172</v>
       </c>
@@ -25894,129 +25847,129 @@
       <c r="G17" s="21" t="s">
         <v>1180</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="30" t="s">
         <v>1165</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="36" t="s">
         <v>1183</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="36" t="s">
         <v>1184</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37" t="s">
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="37"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="37" t="s">
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36" t="s">
         <v>1185</v>
       </c>
-      <c r="BA17" s="38" t="s">
+      <c r="BA17" s="37" t="s">
         <v>1186</v>
       </c>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="37"/>
-      <c r="BG17" s="37"/>
-      <c r="BH17" s="37"/>
-      <c r="BI17" s="37"/>
-      <c r="BJ17" s="37"/>
-      <c r="BK17" s="37"/>
-      <c r="BL17" s="37"/>
-      <c r="BM17" s="37"/>
-      <c r="BN17" s="37"/>
-      <c r="BO17" s="37"/>
-      <c r="BP17" s="37"/>
-      <c r="BQ17" s="37"/>
-      <c r="BR17" s="37"/>
-      <c r="BS17" s="37"/>
-      <c r="BT17" s="37"/>
-      <c r="BU17" s="37"/>
-      <c r="BV17" s="37"/>
-      <c r="BW17" s="37"/>
-      <c r="BX17" s="37"/>
-      <c r="BY17" s="37"/>
-      <c r="BZ17" s="37"/>
-      <c r="CA17" s="37"/>
-      <c r="CB17" s="37"/>
-      <c r="CC17" s="37"/>
-      <c r="CD17" s="37"/>
-      <c r="CE17" s="37" t="s">
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="36"/>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="36"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="36"/>
+      <c r="CA17" s="36"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36"/>
+      <c r="CE17" s="36" t="s">
         <v>1187</v>
       </c>
-      <c r="CF17" s="37" t="s">
+      <c r="CF17" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CG17" s="37"/>
-      <c r="CH17" s="37"/>
-      <c r="CI17" s="37"/>
-      <c r="CJ17" s="37"/>
-      <c r="CK17" s="37"/>
-      <c r="CL17" s="37"/>
-      <c r="CM17" s="37"/>
-      <c r="CN17" s="37"/>
-      <c r="CO17" s="37"/>
-      <c r="CP17" s="37"/>
-      <c r="CQ17" s="37"/>
-      <c r="CR17" s="37"/>
-      <c r="CS17" s="37"/>
-      <c r="CT17" s="37"/>
-      <c r="CU17" s="37"/>
-      <c r="CV17" s="37"/>
-      <c r="CW17" s="37"/>
-      <c r="CX17" s="37"/>
-      <c r="CY17" s="37"/>
+      <c r="CG17" s="36"/>
+      <c r="CH17" s="36"/>
+      <c r="CI17" s="36"/>
+      <c r="CJ17" s="36"/>
+      <c r="CK17" s="36"/>
+      <c r="CL17" s="36"/>
+      <c r="CM17" s="36"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="36"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+      <c r="CS17" s="36"/>
+      <c r="CT17" s="36"/>
+      <c r="CU17" s="36"/>
+      <c r="CV17" s="36"/>
+      <c r="CW17" s="36"/>
+      <c r="CX17" s="36"/>
+      <c r="CY17" s="36"/>
       <c r="DA17" s="21" t="s">
         <v>1188</v>
       </c>
@@ -26047,129 +26000,129 @@
       <c r="G18" s="21" t="s">
         <v>1195</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="30" t="s">
         <v>1196</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>1165</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="36" t="s">
         <v>1183</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="36" t="s">
         <v>1184</v>
       </c>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37" t="s">
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="S18" s="37" t="s">
+      <c r="S18" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="37"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="37"/>
-      <c r="AY18" s="37"/>
-      <c r="AZ18" s="37" t="s">
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36" t="s">
         <v>1185</v>
       </c>
-      <c r="BA18" s="38" t="s">
+      <c r="BA18" s="37" t="s">
         <v>1186</v>
       </c>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="37"/>
-      <c r="BD18" s="37"/>
-      <c r="BE18" s="37"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="37"/>
-      <c r="BH18" s="37"/>
-      <c r="BI18" s="37"/>
-      <c r="BJ18" s="37"/>
-      <c r="BK18" s="37"/>
-      <c r="BL18" s="37"/>
-      <c r="BM18" s="37"/>
-      <c r="BN18" s="37"/>
-      <c r="BO18" s="37"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="37"/>
-      <c r="BR18" s="37"/>
-      <c r="BS18" s="37"/>
-      <c r="BT18" s="37"/>
-      <c r="BU18" s="37"/>
-      <c r="BV18" s="37"/>
-      <c r="BW18" s="37"/>
-      <c r="BX18" s="37"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="37"/>
-      <c r="CA18" s="37"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
-      <c r="CE18" s="37" t="s">
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="36"/>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="36"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="36"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="36"/>
+      <c r="CA18" s="36"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="36" t="s">
         <v>1187</v>
       </c>
-      <c r="CF18" s="37" t="s">
+      <c r="CF18" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="37"/>
-      <c r="CI18" s="37"/>
-      <c r="CJ18" s="37"/>
-      <c r="CK18" s="37"/>
-      <c r="CL18" s="37"/>
-      <c r="CM18" s="37"/>
-      <c r="CN18" s="37"/>
-      <c r="CO18" s="37"/>
-      <c r="CP18" s="37"/>
-      <c r="CQ18" s="37"/>
-      <c r="CR18" s="37"/>
-      <c r="CS18" s="37"/>
-      <c r="CT18" s="37"/>
-      <c r="CU18" s="37"/>
-      <c r="CV18" s="37"/>
-      <c r="CW18" s="37"/>
-      <c r="CX18" s="37"/>
-      <c r="CY18" s="37"/>
+      <c r="CG18" s="36"/>
+      <c r="CH18" s="36"/>
+      <c r="CI18" s="36"/>
+      <c r="CJ18" s="36"/>
+      <c r="CK18" s="36"/>
+      <c r="CL18" s="36"/>
+      <c r="CM18" s="36"/>
+      <c r="CN18" s="36"/>
+      <c r="CO18" s="36"/>
+      <c r="CP18" s="36"/>
+      <c r="CQ18" s="36"/>
+      <c r="CR18" s="36"/>
+      <c r="CS18" s="36"/>
+      <c r="CT18" s="36"/>
+      <c r="CU18" s="36"/>
+      <c r="CV18" s="36"/>
+      <c r="CW18" s="36"/>
+      <c r="CX18" s="36"/>
+      <c r="CY18" s="36"/>
       <c r="DA18" s="21" t="s">
         <v>1188</v>
       </c>
@@ -26200,159 +26153,159 @@
       <c r="G19" s="21" t="s">
         <v>1203</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="30" t="s">
         <v>1196</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="30" t="s">
         <v>1204</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="36" t="s">
         <v>1183</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="36" t="s">
         <v>1184</v>
       </c>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37" t="s">
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="S19" s="37" t="s">
+      <c r="S19" s="36" t="s">
         <v>1023</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="36" t="s">
         <v>1206</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="36" t="s">
         <v>1207</v>
       </c>
-      <c r="V19" s="37" t="s">
+      <c r="V19" s="36" t="s">
         <v>1208</v>
       </c>
-      <c r="W19" s="37" t="s">
+      <c r="W19" s="36" t="s">
         <v>1206</v>
       </c>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37" t="s">
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37" t="s">
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="AL19" s="37" t="s">
+      <c r="AL19" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="37"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37" t="s">
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36" t="s">
         <v>1185</v>
       </c>
-      <c r="BA19" s="38" t="s">
+      <c r="BA19" s="37" t="s">
         <v>1209</v>
       </c>
-      <c r="BB19" s="37" t="s">
+      <c r="BB19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BC19" s="37"/>
-      <c r="BD19" s="37" t="s">
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BE19" s="37" t="s">
+      <c r="BE19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BF19" s="37"/>
-      <c r="BG19" s="37"/>
-      <c r="BH19" s="37" t="s">
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BI19" s="37"/>
-      <c r="BJ19" s="37" t="s">
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BK19" s="37" t="s">
+      <c r="BK19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BL19" s="37"/>
-      <c r="BM19" s="37" t="s">
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BN19" s="37" t="s">
+      <c r="BN19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="BO19" s="37"/>
-      <c r="BP19" s="37"/>
-      <c r="BQ19" s="37"/>
-      <c r="BR19" s="37"/>
-      <c r="BS19" s="37"/>
-      <c r="BT19" s="37"/>
-      <c r="BU19" s="37"/>
-      <c r="BV19" s="37"/>
-      <c r="BW19" s="37"/>
-      <c r="BX19" s="37"/>
-      <c r="BY19" s="37"/>
-      <c r="BZ19" s="37"/>
-      <c r="CA19" s="37"/>
-      <c r="CB19" s="37"/>
-      <c r="CC19" s="37"/>
-      <c r="CD19" s="37"/>
-      <c r="CE19" s="37" t="s">
+      <c r="BO19" s="36"/>
+      <c r="BP19" s="36"/>
+      <c r="BQ19" s="36"/>
+      <c r="BR19" s="36"/>
+      <c r="BS19" s="36"/>
+      <c r="BT19" s="36"/>
+      <c r="BU19" s="36"/>
+      <c r="BV19" s="36"/>
+      <c r="BW19" s="36"/>
+      <c r="BX19" s="36"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="36"/>
+      <c r="CA19" s="36"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36"/>
+      <c r="CE19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CF19" s="37" t="s">
+      <c r="CF19" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CG19" s="37"/>
-      <c r="CH19" s="37"/>
-      <c r="CI19" s="37"/>
-      <c r="CJ19" s="37"/>
-      <c r="CK19" s="37"/>
-      <c r="CL19" s="37"/>
-      <c r="CM19" s="37"/>
-      <c r="CN19" s="37"/>
-      <c r="CO19" s="37"/>
-      <c r="CP19" s="37"/>
-      <c r="CQ19" s="37"/>
-      <c r="CR19" s="37"/>
-      <c r="CS19" s="37"/>
-      <c r="CT19" s="37"/>
-      <c r="CU19" s="37"/>
-      <c r="CV19" s="37"/>
-      <c r="CW19" s="37"/>
-      <c r="CX19" s="37"/>
-      <c r="CY19" s="37"/>
+      <c r="CG19" s="36"/>
+      <c r="CH19" s="36"/>
+      <c r="CI19" s="36"/>
+      <c r="CJ19" s="36"/>
+      <c r="CK19" s="36"/>
+      <c r="CL19" s="36"/>
+      <c r="CM19" s="36"/>
+      <c r="CN19" s="36"/>
+      <c r="CO19" s="36"/>
+      <c r="CP19" s="36"/>
+      <c r="CQ19" s="36"/>
+      <c r="CR19" s="36"/>
+      <c r="CS19" s="36"/>
+      <c r="CT19" s="36"/>
+      <c r="CU19" s="36"/>
+      <c r="CV19" s="36"/>
+      <c r="CW19" s="36"/>
+      <c r="CX19" s="36"/>
+      <c r="CY19" s="36"/>
       <c r="DA19" s="21" t="s">
         <v>1188</v>
       </c>
@@ -26383,129 +26336,129 @@
       <c r="G20" s="21" t="s">
         <v>1216</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>1152</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="36" t="s">
         <v>1183</v>
       </c>
-      <c r="P20" s="37" t="s">
+      <c r="P20" s="36" t="s">
         <v>1184</v>
       </c>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37" t="s">
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="S20" s="37" t="s">
+      <c r="S20" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37" t="s">
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36" t="s">
         <v>1185</v>
       </c>
-      <c r="BA20" s="38" t="s">
+      <c r="BA20" s="37" t="s">
         <v>1217</v>
       </c>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="37"/>
-      <c r="BH20" s="37"/>
-      <c r="BI20" s="37"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="37"/>
-      <c r="BL20" s="37"/>
-      <c r="BM20" s="37"/>
-      <c r="BN20" s="37"/>
-      <c r="BO20" s="37"/>
-      <c r="BP20" s="37"/>
-      <c r="BQ20" s="37"/>
-      <c r="BR20" s="37"/>
-      <c r="BS20" s="37"/>
-      <c r="BT20" s="37"/>
-      <c r="BU20" s="37"/>
-      <c r="BV20" s="37"/>
-      <c r="BW20" s="37"/>
-      <c r="BX20" s="37"/>
-      <c r="BY20" s="37"/>
-      <c r="BZ20" s="37"/>
-      <c r="CA20" s="37"/>
-      <c r="CB20" s="37"/>
-      <c r="CC20" s="37"/>
-      <c r="CD20" s="37"/>
-      <c r="CE20" s="37" t="s">
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="36"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="36"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="36"/>
+      <c r="CA20" s="36"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CF20" s="37" t="s">
+      <c r="CF20" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CG20" s="37"/>
-      <c r="CH20" s="37"/>
-      <c r="CI20" s="37"/>
-      <c r="CJ20" s="37"/>
-      <c r="CK20" s="37"/>
-      <c r="CL20" s="37"/>
-      <c r="CM20" s="37"/>
-      <c r="CN20" s="37"/>
-      <c r="CO20" s="37"/>
-      <c r="CP20" s="37"/>
-      <c r="CQ20" s="37"/>
-      <c r="CR20" s="37"/>
-      <c r="CS20" s="37"/>
-      <c r="CT20" s="37"/>
-      <c r="CU20" s="37"/>
-      <c r="CV20" s="37"/>
-      <c r="CW20" s="37"/>
-      <c r="CX20" s="37"/>
-      <c r="CY20" s="37"/>
+      <c r="CG20" s="36"/>
+      <c r="CH20" s="36"/>
+      <c r="CI20" s="36"/>
+      <c r="CJ20" s="36"/>
+      <c r="CK20" s="36"/>
+      <c r="CL20" s="36"/>
+      <c r="CM20" s="36"/>
+      <c r="CN20" s="36"/>
+      <c r="CO20" s="36"/>
+      <c r="CP20" s="36"/>
+      <c r="CQ20" s="36"/>
+      <c r="CR20" s="36"/>
+      <c r="CS20" s="36"/>
+      <c r="CT20" s="36"/>
+      <c r="CU20" s="36"/>
+      <c r="CV20" s="36"/>
+      <c r="CW20" s="36"/>
+      <c r="CX20" s="36"/>
+      <c r="CY20" s="36"/>
       <c r="DA20" s="21" t="s">
         <v>1188</v>
       </c>
@@ -26536,129 +26489,129 @@
       <c r="G21" s="21" t="s">
         <v>1224</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>1225</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="30" t="s">
         <v>1226</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="36" t="s">
         <v>1227</v>
       </c>
-      <c r="P21" s="37" t="s">
+      <c r="P21" s="36" t="s">
         <v>1228</v>
       </c>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37" t="s">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36" t="s">
         <v>1021</v>
       </c>
-      <c r="S21" s="37" t="s">
+      <c r="S21" s="36" t="s">
         <v>1044</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="37" t="s">
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36" t="s">
         <v>1185</v>
       </c>
-      <c r="BA21" s="38" t="s">
+      <c r="BA21" s="37" t="s">
         <v>1229</v>
       </c>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="37"/>
-      <c r="BD21" s="37"/>
-      <c r="BE21" s="37"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="37"/>
-      <c r="BH21" s="37"/>
-      <c r="BI21" s="37"/>
-      <c r="BJ21" s="37"/>
-      <c r="BK21" s="37"/>
-      <c r="BL21" s="37"/>
-      <c r="BM21" s="37"/>
-      <c r="BN21" s="37"/>
-      <c r="BO21" s="37"/>
-      <c r="BP21" s="37"/>
-      <c r="BQ21" s="37"/>
-      <c r="BR21" s="37"/>
-      <c r="BS21" s="37"/>
-      <c r="BT21" s="37"/>
-      <c r="BU21" s="37"/>
-      <c r="BV21" s="37"/>
-      <c r="BW21" s="37"/>
-      <c r="BX21" s="37"/>
-      <c r="BY21" s="37"/>
-      <c r="BZ21" s="37"/>
-      <c r="CA21" s="37"/>
-      <c r="CB21" s="37"/>
-      <c r="CC21" s="37"/>
-      <c r="CD21" s="37"/>
-      <c r="CE21" s="37" t="s">
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="36"/>
+      <c r="BQ21" s="36"/>
+      <c r="BR21" s="36"/>
+      <c r="BS21" s="36"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="36"/>
+      <c r="BV21" s="36"/>
+      <c r="BW21" s="36"/>
+      <c r="BX21" s="36"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="36"/>
+      <c r="CA21" s="36"/>
+      <c r="CB21" s="36"/>
+      <c r="CC21" s="36"/>
+      <c r="CD21" s="36"/>
+      <c r="CE21" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CF21" s="37" t="s">
+      <c r="CF21" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="CG21" s="37"/>
-      <c r="CH21" s="37"/>
-      <c r="CI21" s="37"/>
-      <c r="CJ21" s="37"/>
-      <c r="CK21" s="37"/>
-      <c r="CL21" s="37"/>
-      <c r="CM21" s="37"/>
-      <c r="CN21" s="37"/>
-      <c r="CO21" s="37"/>
-      <c r="CP21" s="37"/>
-      <c r="CQ21" s="37"/>
-      <c r="CR21" s="37"/>
-      <c r="CS21" s="37"/>
-      <c r="CT21" s="37"/>
-      <c r="CU21" s="37"/>
-      <c r="CV21" s="37"/>
-      <c r="CW21" s="37"/>
-      <c r="CX21" s="37"/>
-      <c r="CY21" s="37"/>
+      <c r="CG21" s="36"/>
+      <c r="CH21" s="36"/>
+      <c r="CI21" s="36"/>
+      <c r="CJ21" s="36"/>
+      <c r="CK21" s="36"/>
+      <c r="CL21" s="36"/>
+      <c r="CM21" s="36"/>
+      <c r="CN21" s="36"/>
+      <c r="CO21" s="36"/>
+      <c r="CP21" s="36"/>
+      <c r="CQ21" s="36"/>
+      <c r="CR21" s="36"/>
+      <c r="CS21" s="36"/>
+      <c r="CT21" s="36"/>
+      <c r="CU21" s="36"/>
+      <c r="CV21" s="36"/>
+      <c r="CW21" s="36"/>
+      <c r="CX21" s="36"/>
+      <c r="CY21" s="36"/>
       <c r="DA21" s="21" t="s">
         <v>1188</v>
       </c>
@@ -27700,7 +27653,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:DB11"/>
+  <autoFilter ref="A1:DB259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -27720,29 +27673,29 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="18.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="58.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.73"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="40" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>968</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -27766,10 +27719,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B2)</f>
         <v>lamd:class_TREATY</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>1230</v>
       </c>
-      <c r="C2" s="42" t="str">
+      <c r="C2" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("lamd:class_",D2),""  )</f>
         <v/>
       </c>
@@ -27790,10 +27743,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B3)</f>
         <v>lamd:class_AGREE</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>1144</v>
       </c>
-      <c r="C3" s="42" t="str">
+      <c r="C3" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("lamd:class_",D3),""  )</f>
         <v/>
       </c>
@@ -27814,10 +27767,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B4)</f>
         <v>lamd:class_LEGAL</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>1235</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("lamd:class_",D4),""  )</f>
         <v/>
       </c>
@@ -27838,10 +27791,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B5)</f>
         <v>lamd:class_LEGIS</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>1238</v>
       </c>
-      <c r="C5" s="42" t="str">
+      <c r="C5" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("lamd:class_",D5),""  )</f>
         <v>lamd:class_LEGAL</v>
       </c>
@@ -27864,10 +27817,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B6)</f>
         <v>lamd:class_NLEGIS</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>1241</v>
       </c>
-      <c r="C6" s="42" t="str">
+      <c r="C6" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("lamd:class_",D6),""  )</f>
         <v>lamd:class_LEGAL</v>
       </c>
@@ -27890,10 +27843,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B7)</f>
         <v>lamd:class_3OTHER</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>1244</v>
       </c>
-      <c r="C7" s="42" t="str">
+      <c r="C7" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("lamd:class_",D7),""  )</f>
         <v>lamd:class_LEGAL</v>
       </c>
@@ -27916,17 +27869,17 @@
         <f aca="false">CONCATENATE("lamd:class_",B8)</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>1029</v>
       </c>
-      <c r="C8" s="42" t="str">
+      <c r="C8" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("lamd:class_",D8),""  )</f>
         <v/>
       </c>
       <c r="E8" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>1247</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -27938,14 +27891,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B9)</f>
         <v>lamd:class_COM</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>1030</v>
       </c>
-      <c r="C9" s="42" t="str">
+      <c r="C9" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("lamd:class_",D9),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E9" s="9" t="n">
@@ -27963,14 +27916,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B10)</f>
         <v>lamd:class_CONSIL</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>1251</v>
       </c>
-      <c r="C10" s="42" t="str">
+      <c r="C10" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("lamd:class_",D10),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E10" s="9" t="n">
@@ -27988,14 +27941,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B11)</f>
         <v>lamd:class_EP</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>1254</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("lamd:class_",D11),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E11" s="9" t="n">
@@ -28013,14 +27966,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B12)</f>
         <v>lamd:class_EESC</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>1257</v>
       </c>
-      <c r="C12" s="42" t="str">
+      <c r="C12" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("lamd:class_",D12),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E12" s="9" t="n">
@@ -28038,14 +27991,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B13)</f>
         <v>lamd:class_COR</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>1260</v>
       </c>
-      <c r="C13" s="42" t="str">
+      <c r="C13" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("lamd:class_",D13),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E13" s="9" t="n">
@@ -28063,14 +28016,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B14)</f>
         <v>lamd:class_ECB</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>1263</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C14" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("lamd:class_",D14),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E14" s="9" t="n">
@@ -28088,14 +28041,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B15)</f>
         <v>lamd:class_5OTHER</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>1266</v>
       </c>
-      <c r="C15" s="42" t="str">
+      <c r="C15" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("lamd:class_",D15),""  )</f>
         <v>lamd:class_PREPDOC</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>1029</v>
       </c>
       <c r="E15" s="9" t="n">
@@ -28113,10 +28066,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B16)</f>
         <v>lamd:class_CASE</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>1120</v>
       </c>
-      <c r="C16" s="42" t="str">
+      <c r="C16" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("lamd:class_",D16),""  )</f>
         <v/>
       </c>
@@ -28135,10 +28088,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B17)</f>
         <v>lamd:class_EFTA</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>1188</v>
       </c>
-      <c r="C17" s="42" t="str">
+      <c r="C17" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("lamd:class_",D17),""  )</f>
         <v/>
       </c>
@@ -28157,10 +28110,10 @@
         <f aca="false">CONCATENATE("lamd:class_",B18)</f>
         <v>lamd:class_CDOC</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>1172</v>
       </c>
-      <c r="C18" s="42" t="str">
+      <c r="C18" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D18)),CONCATENATE("lamd:class_",D18),""  )</f>
         <v/>
       </c>
@@ -28179,14 +28132,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B19)</f>
         <v>lamd:class_STATEAID</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>1173</v>
       </c>
-      <c r="C19" s="42" t="str">
+      <c r="C19" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D19)),CONCATENATE("lamd:class_",D19),""  )</f>
         <v>lamd:class_CDOC</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>1172</v>
       </c>
       <c r="E19" s="9" t="n">
@@ -28204,14 +28157,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B20)</f>
         <v>lamd:class_CRDS</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>1275</v>
       </c>
-      <c r="C20" s="42" t="str">
+      <c r="C20" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D20)),CONCATENATE("lamd:class_",D20),""  )</f>
         <v>lamd:class_CDOC</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>1172</v>
       </c>
       <c r="E20" s="9" t="n">
@@ -28226,14 +28179,14 @@
         <f aca="false">CONCATENATE("lamd:class_",B21)</f>
         <v>lamd:class_COTHER</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="41" t="str">
         <f aca="false">IF(NOT(ISBLANK(D21)),CONCATENATE("lamd:class_",D21),""  )</f>
         <v>lamd:class_CDOC</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>1172</v>
       </c>
       <c r="E21" s="9" t="n">
@@ -28272,7 +28225,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -28295,50 +28248,50 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="2" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="44" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>970</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>1279</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>735</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>741</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>746</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>752</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>1280</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>1281</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -29416,7 +29369,7 @@
       </c>
       <c r="E29" s="2" t="str">
         <f aca="false">CONCATENATE("[",B29,"] ",F29)</f>
-        <v>[3_A_OJC] OJ-C: Opinions </v>
+        <v>[3_A_OJC] OJ-C: Opinions</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1358</v>
@@ -29952,7 +29905,7 @@
       <c r="F41" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="45" t="s">
         <v>1400</v>
       </c>
       <c r="I41" s="2" t="n">
@@ -32043,7 +31996,7 @@
       </c>
       <c r="E89" s="2" t="str">
         <f aca="false">CONCATENATE("[",B89,"] ",F89)</f>
-        <v>[5_AC] Opinions of the European Economic and Social Committee </v>
+        <v>[5_AC] Opinions of the European Economic and Social Committee</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>1547</v>
@@ -32082,7 +32035,7 @@
       </c>
       <c r="E90" s="2" t="str">
         <f aca="false">CONCATENATE("[",B90,"] ",F90)</f>
-        <v>[5_AC_OJC] OJ-C: Opinions of the European Economic and Social Committee </v>
+        <v>[5_AC_OJC] OJ-C: Opinions of the European Economic and Social Committee</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>1551</v>
@@ -33522,7 +33475,7 @@
       </c>
       <c r="E122" s="2" t="str">
         <f aca="false">CONCATENATE("[",B122,"] ",F122)</f>
-        <v>[5_IE] Own-initiative opinions of the European Economic and Social Committee </v>
+        <v>[5_IE] Own-initiative opinions of the European Economic and Social Committee</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>1670</v>
@@ -33561,7 +33514,7 @@
       </c>
       <c r="E123" s="2" t="str">
         <f aca="false">CONCATENATE("[",B123,"] ",F123)</f>
-        <v>[5_IE_OJC] OJ-C: Own-initiative opinions of the European Economic and Social Committee </v>
+        <v>[5_IE_OJC] OJ-C: Own-initiative opinions of the European Economic and Social Committee</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>1673</v>
@@ -39071,7 +39024,7 @@
       <c r="F253" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="G253" s="46" t="s">
+      <c r="G253" s="45" t="s">
         <v>2050</v>
       </c>
       <c r="I253" s="2" t="n">
@@ -39105,7 +39058,7 @@
       </c>
       <c r="E254" s="2" t="str">
         <f aca="false">CONCATENATE("[",B254,"] ",F254)</f>
-        <v>[9_H] Questions at question time </v>
+        <v>[9_H] Questions at question time</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>2052</v>
@@ -39279,7 +39232,7 @@
       </c>
       <c r="E259" s="2" t="str">
         <f aca="false">CONCATENATE("[",B259,"] ",F259)</f>
-        <v>[E_A_OJC] OJ-C: Agreements between EFTA Member States </v>
+        <v>[E_A_OJC] OJ-C: Agreements between EFTA Member States</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>2062</v>
@@ -39324,7 +39277,7 @@
       </c>
       <c r="E260" s="2" t="str">
         <f aca="false">CONCATENATE("[",B260,"] ",F260)</f>
-        <v>[E_A_OJL] OJ-L: Agreements between EFTA Member States </v>
+        <v>[E_A_OJL] OJ-L: Agreements between EFTA Member States</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>2065</v>
@@ -39408,7 +39361,7 @@
       </c>
       <c r="E262" s="2" t="str">
         <f aca="false">CONCATENATE("[",B262,"] ",F262)</f>
-        <v>[E_C_OJC] OJ-C: Acts of the EFTA Surveillance Authority </v>
+        <v>[E_C_OJC] OJ-C: Acts of the EFTA Surveillance Authority</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>2071</v>
@@ -39453,7 +39406,7 @@
       </c>
       <c r="E263" s="2" t="str">
         <f aca="false">CONCATENATE("[",B263,"] ",F263)</f>
-        <v>[E_C_OJL] OJ-L: Acts of the EFTA Surveillance Authority </v>
+        <v>[E_C_OJL] OJ-L: Acts of the EFTA Surveillance Authority</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>2074</v>
@@ -40081,26 +40034,26 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="1:1 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="47" width="23.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="46" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="23.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="true" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="40" customFormat="true" ht="23.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>968</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -40124,10 +40077,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B2)</f>
         <v>celexd:class_1</v>
       </c>
-      <c r="B2" s="47" t="n">
+      <c r="B2" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="str">
+      <c r="C2" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("celexd:class_",D2),""  )</f>
         <v/>
       </c>
@@ -40143,10 +40096,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B3)</f>
         <v>celexd:class_2</v>
       </c>
-      <c r="B3" s="47" t="n">
+      <c r="B3" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="49" t="str">
+      <c r="C3" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("celexd:class_",D3),""  )</f>
         <v/>
       </c>
@@ -40162,10 +40115,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B4)</f>
         <v>celexd:class_3</v>
       </c>
-      <c r="B4" s="47" t="n">
+      <c r="B4" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="49" t="str">
+      <c r="C4" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("celexd:class_",D4),""  )</f>
         <v/>
       </c>
@@ -40181,10 +40134,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B5)</f>
         <v>celexd:class_4</v>
       </c>
-      <c r="B5" s="47" t="n">
+      <c r="B5" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="49" t="str">
+      <c r="C5" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("celexd:class_",D5),""  )</f>
         <v/>
       </c>
@@ -40200,10 +40153,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B6)</f>
         <v>celexd:class_5</v>
       </c>
-      <c r="B6" s="47" t="n">
+      <c r="B6" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="49" t="str">
+      <c r="C6" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("celexd:class_",D6),""  )</f>
         <v/>
       </c>
@@ -40219,10 +40172,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B7)</f>
         <v>celexd:class_5_CONSIL</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>1566</v>
       </c>
-      <c r="C7" s="49" t="str">
+      <c r="C7" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("celexd:class_",D7),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40241,10 +40194,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B8)</f>
         <v>celexd:class_5_COM</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>1626</v>
       </c>
-      <c r="C8" s="49" t="str">
+      <c r="C8" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("celexd:class_",D8),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40263,10 +40216,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B9)</f>
         <v>celexd:class_5_EP</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>1579</v>
       </c>
-      <c r="C9" s="49" t="str">
+      <c r="C9" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("celexd:class_",D9),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40285,10 +40238,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B10)</f>
         <v>celexd:class_5_ECA</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>1533</v>
       </c>
-      <c r="C10" s="49" t="str">
+      <c r="C10" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("celexd:class_",D10),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40307,10 +40260,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B11)</f>
         <v>celexd:class_5_ECB</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>1541</v>
       </c>
-      <c r="C11" s="49" t="str">
+      <c r="C11" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("celexd:class_",D11),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40329,10 +40282,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B12)</f>
         <v>celexd:class_5_EESC</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>1549</v>
       </c>
-      <c r="C12" s="49" t="str">
+      <c r="C12" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("celexd:class_",D12),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40351,10 +40304,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B13)</f>
         <v>celexd:class_5_COR</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>1593</v>
       </c>
-      <c r="C13" s="49" t="str">
+      <c r="C13" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("celexd:class_",D13),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40373,10 +40326,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B14)</f>
         <v>celexd:class_5_ECSC</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>1573</v>
       </c>
-      <c r="C14" s="49" t="str">
+      <c r="C14" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("celexd:class_",D14),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40395,10 +40348,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B15)</f>
         <v>celexd:class_5_OTHER</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>1601</v>
       </c>
-      <c r="C15" s="49" t="str">
+      <c r="C15" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("celexd:class_",D15),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40417,10 +40370,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B16)</f>
         <v>celexd:class_6</v>
       </c>
-      <c r="B16" s="47" t="n">
+      <c r="B16" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="49" t="str">
+      <c r="C16" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("celexd:class_",D16),""  )</f>
         <v/>
       </c>
@@ -40436,10 +40389,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B17)</f>
         <v>celexd:class_6_CJ</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>1828</v>
       </c>
-      <c r="C17" s="49" t="str">
+      <c r="C17" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("celexd:class_",D17),""  )</f>
         <v>celexd:class_6</v>
       </c>
@@ -40458,10 +40411,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B18)</f>
         <v>celexd:class_6_GCEU</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>1934</v>
       </c>
-      <c r="C18" s="49" t="str">
+      <c r="C18" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D18)),CONCATENATE("celexd:class_",D18),""  )</f>
         <v>celexd:class_6</v>
       </c>
@@ -40480,10 +40433,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B19)</f>
         <v>celexd:class_6_CST</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>1910</v>
       </c>
-      <c r="C19" s="49" t="str">
+      <c r="C19" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D19)),CONCATENATE("celexd:class_",D19),""  )</f>
         <v>celexd:class_6</v>
       </c>
@@ -40502,10 +40455,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B20)</f>
         <v>celexd:class_7</v>
       </c>
-      <c r="B20" s="47" t="n">
+      <c r="B20" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="49" t="str">
+      <c r="C20" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D20)),CONCATENATE("celexd:class_",D20),""  )</f>
         <v/>
       </c>
@@ -40521,10 +40474,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B21)</f>
         <v>celexd:class_8</v>
       </c>
-      <c r="B21" s="47" t="n">
+      <c r="B21" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="49" t="str">
+      <c r="C21" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D21)),CONCATENATE("celexd:class_",D21),""  )</f>
         <v/>
       </c>
@@ -40540,10 +40493,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B22)</f>
         <v>celexd:class_9</v>
       </c>
-      <c r="B22" s="47" t="n">
+      <c r="B22" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="C22" s="49" t="str">
+      <c r="C22" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D22)),CONCATENATE("celexd:class_",D22),""  )</f>
         <v/>
       </c>
@@ -40559,10 +40512,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B23)</f>
         <v>celexd:class_E</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>1397</v>
       </c>
-      <c r="C23" s="49" t="str">
+      <c r="C23" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D23)),CONCATENATE("celexd:class_",D23),""  )</f>
         <v/>
       </c>
@@ -40578,10 +40531,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B24)</f>
         <v>celexd:class_C</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>1375</v>
       </c>
-      <c r="C24" s="49" t="str">
+      <c r="C24" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D24)),CONCATENATE("celexd:class_",D24),""  )</f>
         <v/>
       </c>
@@ -40597,10 +40550,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B25)</f>
         <v>celexd:class_0</v>
       </c>
-      <c r="B25" s="47" t="n">
+      <c r="B25" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="49" t="str">
+      <c r="C25" s="48" t="str">
         <f aca="false">IF(NOT(ISBLANK(D25)),CONCATENATE("celexd:class_",D25),""  )</f>
         <v/>
       </c>
@@ -40630,20 +40583,20 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="1:1 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.32421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="49" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
         <v>2130</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>2131</v>
       </c>
     </row>
@@ -41071,10 +41024,10 @@
   <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="1:1 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.32421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.36"/>
@@ -41083,7 +41036,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="49" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>2229</v>
       </c>
@@ -42301,7 +42254,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>

--- a/tests/test_data/LAM_metadata_20210413_testbed.xlsx
+++ b/tests/test_data/LAM_metadata_20210413_testbed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LAM properties" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,13 +20,14 @@
     <sheet name="column mapping" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX classes'!$A$1:$O$277</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$21</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX classes'!$A$1:$P$277</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$259</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AH$155</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'old LAM properties'!$A$1:$AM$150</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'LAM properties'!$A$1:$AH$150</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'LAM classes'!$A$1:$DB$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$A$1:$DB$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'LAM classes'!$A$1:$DB$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX classes'!$A$1:$O$277</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">'old LAM properties'!$A$1:$AL$111</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -13374,7 +13375,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13547,14 +13548,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13663,9 +13656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13675,7 +13668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17859240" cy="6051600"/>
+          <a:ext cx="17859240" cy="6051240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13718,9 +13711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
+      <xdr:colOff>213840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>443160</xdr:rowOff>
+      <xdr:rowOff>442800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13730,7 +13723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8074080" cy="443160"/>
+          <a:ext cx="8073720" cy="442800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13760,9 +13753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>631440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>443160</xdr:rowOff>
+      <xdr:rowOff>442800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13772,7 +13765,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="40123440" cy="443160"/>
+          <a:ext cx="40123080" cy="442800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13803,7 +13796,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -21189,7 +21182,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.53"/>
@@ -22917,7 +22910,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
@@ -23591,9 +23584,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
     </sheetView>
   </sheetViews>
@@ -23684,7 +23677,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="90" min="90" style="21" width="3.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="91" min="91" style="21" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="92" min="92" style="21" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="93" min="93" style="21" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="93" min="93" style="21" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="94" min="94" style="21" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="95" min="95" style="21" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="96" min="96" style="21" width="16.27"/>
@@ -27643,7 +27636,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:DB21"/>
+  <autoFilter ref="A1:DB259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -27666,7 +27659,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="10.72"/>
@@ -28212,10 +28205,10 @@
   </sheetPr>
   <dimension ref="A1:P277"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -28224,67 +28217,66 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="40.91"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="2" width="93.72"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="2" width="123.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="9" min="9" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="2" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="2" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="12" min="12" style="2" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="13" min="13" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="2" width="24.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="2" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="9" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="12" min="12" style="2" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="13" min="13" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="16.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="2" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="5" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="5" t="s">
         <v>1280</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -29895,7 +29887,7 @@
       <c r="F41" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="43" t="s">
         <v>1399</v>
       </c>
       <c r="I41" s="2" t="n">
@@ -39014,7 +39006,7 @@
       <c r="F253" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="G253" s="45" t="s">
+      <c r="G253" s="43" t="s">
         <v>2049</v>
       </c>
       <c r="I253" s="2" t="n">
@@ -40004,7 +39996,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O277"/>
+  <autoFilter ref="A1:P277"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -40024,13 +40016,13 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="46" width="23.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="44" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="23.45"/>
@@ -40040,7 +40032,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
@@ -40067,10 +40059,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B2)</f>
         <v>celexd:class_1</v>
       </c>
-      <c r="B2" s="46" t="n">
+      <c r="B2" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="str">
+      <c r="C2" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D2)),CONCATENATE("celexd:class_",D2),""  )</f>
         <v/>
       </c>
@@ -40086,10 +40078,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B3)</f>
         <v>celexd:class_2</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="str">
+      <c r="C3" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D3)),CONCATENATE("celexd:class_",D3),""  )</f>
         <v/>
       </c>
@@ -40105,10 +40097,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B4)</f>
         <v>celexd:class_3</v>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="44" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="48" t="str">
+      <c r="C4" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D4)),CONCATENATE("celexd:class_",D4),""  )</f>
         <v/>
       </c>
@@ -40124,10 +40116,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B5)</f>
         <v>celexd:class_4</v>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="48" t="str">
+      <c r="C5" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D5)),CONCATENATE("celexd:class_",D5),""  )</f>
         <v/>
       </c>
@@ -40143,10 +40135,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B6)</f>
         <v>celexd:class_5</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="48" t="str">
+      <c r="C6" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D6)),CONCATENATE("celexd:class_",D6),""  )</f>
         <v/>
       </c>
@@ -40162,10 +40154,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B7)</f>
         <v>celexd:class_5_CONSIL</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>1565</v>
       </c>
-      <c r="C7" s="48" t="str">
+      <c r="C7" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D7)),CONCATENATE("celexd:class_",D7),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40184,10 +40176,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B8)</f>
         <v>celexd:class_5_COM</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>1625</v>
       </c>
-      <c r="C8" s="48" t="str">
+      <c r="C8" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D8)),CONCATENATE("celexd:class_",D8),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40206,10 +40198,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B9)</f>
         <v>celexd:class_5_EP</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>1578</v>
       </c>
-      <c r="C9" s="48" t="str">
+      <c r="C9" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D9)),CONCATENATE("celexd:class_",D9),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40228,10 +40220,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B10)</f>
         <v>celexd:class_5_ECA</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>1532</v>
       </c>
-      <c r="C10" s="48" t="str">
+      <c r="C10" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D10)),CONCATENATE("celexd:class_",D10),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40250,10 +40242,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B11)</f>
         <v>celexd:class_5_ECB</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>1540</v>
       </c>
-      <c r="C11" s="48" t="str">
+      <c r="C11" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D11)),CONCATENATE("celexd:class_",D11),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40272,10 +40264,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B12)</f>
         <v>celexd:class_5_EESC</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>1548</v>
       </c>
-      <c r="C12" s="48" t="str">
+      <c r="C12" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D12)),CONCATENATE("celexd:class_",D12),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40294,10 +40286,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B13)</f>
         <v>celexd:class_5_COR</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>1592</v>
       </c>
-      <c r="C13" s="48" t="str">
+      <c r="C13" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D13)),CONCATENATE("celexd:class_",D13),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40316,10 +40308,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B14)</f>
         <v>celexd:class_5_ECSC</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>1572</v>
       </c>
-      <c r="C14" s="48" t="str">
+      <c r="C14" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D14)),CONCATENATE("celexd:class_",D14),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40338,10 +40330,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B15)</f>
         <v>celexd:class_5_OTHER</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="44" t="s">
         <v>1600</v>
       </c>
-      <c r="C15" s="48" t="str">
+      <c r="C15" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D15)),CONCATENATE("celexd:class_",D15),""  )</f>
         <v>celexd:class_5</v>
       </c>
@@ -40360,10 +40352,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B16)</f>
         <v>celexd:class_6</v>
       </c>
-      <c r="B16" s="46" t="n">
+      <c r="B16" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="48" t="str">
+      <c r="C16" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D16)),CONCATENATE("celexd:class_",D16),""  )</f>
         <v/>
       </c>
@@ -40379,10 +40371,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B17)</f>
         <v>celexd:class_6_CJ</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="44" t="s">
         <v>1827</v>
       </c>
-      <c r="C17" s="48" t="str">
+      <c r="C17" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("celexd:class_",D17),""  )</f>
         <v>celexd:class_6</v>
       </c>
@@ -40401,10 +40393,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B18)</f>
         <v>celexd:class_6_GCEU</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>1933</v>
       </c>
-      <c r="C18" s="48" t="str">
+      <c r="C18" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D18)),CONCATENATE("celexd:class_",D18),""  )</f>
         <v>celexd:class_6</v>
       </c>
@@ -40423,10 +40415,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B19)</f>
         <v>celexd:class_6_CST</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>1909</v>
       </c>
-      <c r="C19" s="48" t="str">
+      <c r="C19" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D19)),CONCATENATE("celexd:class_",D19),""  )</f>
         <v>celexd:class_6</v>
       </c>
@@ -40445,10 +40437,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B20)</f>
         <v>celexd:class_7</v>
       </c>
-      <c r="B20" s="46" t="n">
+      <c r="B20" s="44" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="48" t="str">
+      <c r="C20" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D20)),CONCATENATE("celexd:class_",D20),""  )</f>
         <v/>
       </c>
@@ -40464,10 +40456,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B21)</f>
         <v>celexd:class_8</v>
       </c>
-      <c r="B21" s="46" t="n">
+      <c r="B21" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="48" t="str">
+      <c r="C21" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D21)),CONCATENATE("celexd:class_",D21),""  )</f>
         <v/>
       </c>
@@ -40483,10 +40475,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B22)</f>
         <v>celexd:class_9</v>
       </c>
-      <c r="B22" s="46" t="n">
+      <c r="B22" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="C22" s="48" t="str">
+      <c r="C22" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D22)),CONCATENATE("celexd:class_",D22),""  )</f>
         <v/>
       </c>
@@ -40502,10 +40494,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B23)</f>
         <v>celexd:class_E</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="44" t="s">
         <v>1396</v>
       </c>
-      <c r="C23" s="48" t="str">
+      <c r="C23" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D23)),CONCATENATE("celexd:class_",D23),""  )</f>
         <v/>
       </c>
@@ -40521,10 +40513,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B24)</f>
         <v>celexd:class_C</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="44" t="s">
         <v>1374</v>
       </c>
-      <c r="C24" s="48" t="str">
+      <c r="C24" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D24)),CONCATENATE("celexd:class_",D24),""  )</f>
         <v/>
       </c>
@@ -40540,10 +40532,10 @@
         <f aca="false">CONCATENATE("celexd:class_",B25)</f>
         <v>celexd:class_0</v>
       </c>
-      <c r="B25" s="46" t="n">
+      <c r="B25" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="48" t="str">
+      <c r="C25" s="46" t="str">
         <f aca="false">IF(NOT(ISBLANK(D25)),CONCATENATE("celexd:class_",D25),""  )</f>
         <v/>
       </c>
@@ -40576,13 +40568,13 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="47" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
         <v>2129</v>
       </c>
@@ -41017,7 +41009,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.36"/>
@@ -41026,7 +41018,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="47" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>2228</v>
       </c>
